--- a/results/tables/final_tables_6_22.xlsx
+++ b/results/tables/final_tables_6_22.xlsx
@@ -8,24 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thecs\Dropbox (Boston University)\1_boston_university\8-Research Assistantship\ukData\results\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2026FF19-0AB9-4CF2-8DEE-B15020EBA778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88C6A94-D887-40DF-9983-E54350B19BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{E382401A-5014-4F77-A3DB-04E9551C20F1}"/>
+    <workbookView xWindow="28695" yWindow="-12660" windowWidth="16410" windowHeight="12660" firstSheet="7" activeTab="8" xr2:uid="{E382401A-5014-4F77-A3DB-04E9551C20F1}"/>
   </bookViews>
   <sheets>
     <sheet name="occupation_numbers" sheetId="11" r:id="rId1"/>
-    <sheet name="summaries" sheetId="4" r:id="rId2"/>
-    <sheet name="people_do_diff" sheetId="1" r:id="rId3"/>
-    <sheet name="step-up" sheetId="10" r:id="rId4"/>
-    <sheet name="indexes_make_sense" sheetId="6" r:id="rId5"/>
-    <sheet name="theta_estimates" sheetId="2" r:id="rId6"/>
-    <sheet name="OLS_thetas" sheetId="8" r:id="rId7"/>
-    <sheet name="sigma_estimates" sheetId="3" r:id="rId8"/>
-    <sheet name="skill_correlation" sheetId="7" r:id="rId9"/>
-    <sheet name="top_jobs_skill" sheetId="5" r:id="rId10"/>
+    <sheet name="detail_samples" sheetId="12" r:id="rId2"/>
+    <sheet name="dropped_occ" sheetId="13" r:id="rId3"/>
+    <sheet name="summaries" sheetId="4" r:id="rId4"/>
+    <sheet name="people_do_diff" sheetId="1" r:id="rId5"/>
+    <sheet name="step-up" sheetId="10" r:id="rId6"/>
+    <sheet name="indexes_make_sense" sheetId="6" r:id="rId7"/>
+    <sheet name="skill_correlation" sheetId="7" r:id="rId8"/>
+    <sheet name="theta_estimates" sheetId="2" r:id="rId9"/>
+    <sheet name="OLS_thetas" sheetId="8" r:id="rId10"/>
+    <sheet name="sigma_estimates" sheetId="3" r:id="rId11"/>
+    <sheet name="top_jobs_skill" sheetId="5" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'step-up'!$E$9:$F$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'step-up'!$E$9:$F$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,41 +50,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>César Garro-Marin</author>
-  </authors>
-  <commentList>
-    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{9CC24783-45EC-489D-9B56-131436D4CCF7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>César Garro-Marin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Corrected already, so that everything uses population weights
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={65F25017-E630-4542-AF74-982B88D88ABA}</author>
@@ -109,7 +76,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={134ADD85-417C-4FE4-8D98-C9A6AB9E32ED}</author>
@@ -127,7 +94,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={89256DDE-9554-499E-A7D9-CD9CC41B184F}</author>
@@ -146,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="222">
   <si>
     <t>Occupation fixed-effects</t>
   </si>
@@ -259,33 +226,12 @@
     <t>Weighted</t>
   </si>
   <si>
-    <t>1131 financial managers &amp; chartered secs</t>
-  </si>
-  <si>
-    <t>3534 fin., invest, and taxation analysts and advisers</t>
-  </si>
-  <si>
     <t>2423 mngmnt cons, actuar, econs &amp; statn</t>
   </si>
   <si>
-    <t>2126 design, development, production and process engineers</t>
-  </si>
-  <si>
-    <t>8211 heavy goods vehicle drivers</t>
-  </si>
-  <si>
-    <t>9223 kitchen and catering assistants</t>
-  </si>
-  <si>
     <t>8214 taxi, cab drivers and chauffeurs</t>
   </si>
   <si>
-    <t>224 waiters, waitresses</t>
-  </si>
-  <si>
-    <t>8212 van drivers</t>
-  </si>
-  <si>
     <t>9233 cleaners, domestics</t>
   </si>
   <si>
@@ -298,57 +244,15 @@
     <t>5312 bricklayers, masons, roofers</t>
   </si>
   <si>
-    <t>5111 Farmers, gardeners and ground women</t>
-  </si>
-  <si>
-    <t>5213 Metal forming, welding and related trades</t>
-  </si>
-  <si>
-    <t>5231 Vehicle trades</t>
-  </si>
-  <si>
-    <t>4111 civil service officers and assistants</t>
-  </si>
-  <si>
     <t>3561 public service associates, personnel and industrial relations officers</t>
   </si>
   <si>
-    <t>1135 pers training &amp; ind rel mngers</t>
-  </si>
-  <si>
-    <t>3229 therapists n.e.c.</t>
-  </si>
-  <si>
-    <t>2319 teaching professionals n.e.c.</t>
-  </si>
-  <si>
-    <t>1122 managers in construction, mining and energy</t>
-  </si>
-  <si>
-    <t>8111 food, drink &amp; tobac process operat</t>
-  </si>
-  <si>
     <t>9225 bar staff</t>
   </si>
   <si>
     <t>7112 retail cashiers/check-out operators</t>
   </si>
   <si>
-    <t>3563 vocatn &amp; indust trainrs &amp; instrctrs</t>
-  </si>
-  <si>
-    <t>1172 protective service officers</t>
-  </si>
-  <si>
-    <t>1181 healthcare and social service managers</t>
-  </si>
-  <si>
-    <t>3231 youth and community workers</t>
-  </si>
-  <si>
-    <t>5492 Skill trades nec</t>
-  </si>
-  <si>
     <t>Top 5</t>
   </si>
   <si>
@@ -667,7 +571,238 @@
     <t>yes</t>
   </si>
   <si>
-    <t>no</t>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>2314 secondary eductn teaching prfsnals</t>
+  </si>
+  <si>
+    <t>1112 directors &amp; chief execs of maj orgs</t>
+  </si>
+  <si>
+    <t>1113 senior officials in local gov</t>
+  </si>
+  <si>
+    <t>1114 sen. officials spec interest orgs</t>
+  </si>
+  <si>
+    <t>1133 purchasing managers</t>
+  </si>
+  <si>
+    <t>1134 advertising &amp; public rel managers</t>
+  </si>
+  <si>
+    <t>1137 research and development managers</t>
+  </si>
+  <si>
+    <t>2111 chemists</t>
+  </si>
+  <si>
+    <t>2112 bio scientists and biochemists</t>
+  </si>
+  <si>
+    <t>2113 physts, geologists &amp; meteorologists</t>
+  </si>
+  <si>
+    <t>2129 engineering professionals n.e.c.</t>
+  </si>
+  <si>
+    <t>2211 medical practitioners</t>
+  </si>
+  <si>
+    <t>2213 pharmacists &amp; pharmacologists</t>
+  </si>
+  <si>
+    <t>2216 veterinarians</t>
+  </si>
+  <si>
+    <t>2311 higher educ teaching prfsnals</t>
+  </si>
+  <si>
+    <t>2312 further educ teaching prfsnals</t>
+  </si>
+  <si>
+    <t>2313 educ officers,school inspectrs</t>
+  </si>
+  <si>
+    <t>2316 spec needs educ teaching profs</t>
+  </si>
+  <si>
+    <t>2317 registrs &amp; sen admins ed establish</t>
+  </si>
+  <si>
+    <t>2321 scientific researchers</t>
+  </si>
+  <si>
+    <t>2329 researchers n.e.c.</t>
+  </si>
+  <si>
+    <t>2411 solic &amp; lawyers, judges &amp; coroners</t>
+  </si>
+  <si>
+    <t>2421 chartered and certified accountants</t>
+  </si>
+  <si>
+    <t>2431 architects</t>
+  </si>
+  <si>
+    <t>2434 chartrd surveyors (not qntity surv)</t>
+  </si>
+  <si>
+    <t>2441 public service administrative profs</t>
+  </si>
+  <si>
+    <t>2444 clergy</t>
+  </si>
+  <si>
+    <t>2451 librarians</t>
+  </si>
+  <si>
+    <t>3221 physiotherapists</t>
+  </si>
+  <si>
+    <t>3222 occupational therapists</t>
+  </si>
+  <si>
+    <t>3223 speech and language therapists</t>
+  </si>
+  <si>
+    <t>3551 conservat &amp; environ protection offs</t>
+  </si>
+  <si>
+    <t>3564 car. advis &amp; voction guidnce spcils</t>
+  </si>
+  <si>
+    <t>4142 communication operators</t>
+  </si>
+  <si>
+    <t>6131 veterinary nurses and assistants, other aniimal care occ</t>
+  </si>
+  <si>
+    <t>1211 farm managers</t>
+  </si>
+  <si>
+    <t>5412 upholsterers</t>
+  </si>
+  <si>
+    <t>5431 butchers, meat cutters</t>
+  </si>
+  <si>
+    <t>7113 telephone salespersons</t>
+  </si>
+  <si>
+    <t>8114 chem and related process operatives</t>
+  </si>
+  <si>
+    <t>8116 plastics process operatives</t>
+  </si>
+  <si>
+    <t>8117 mtl mkng &amp; treating procss operatve</t>
+  </si>
+  <si>
+    <t>8131 assemblers (electrical products)</t>
+  </si>
+  <si>
+    <t>8132 assemblers (veh and metal goods)</t>
+  </si>
+  <si>
+    <t>8139 assemblers and routine oprtves nec.</t>
+  </si>
+  <si>
+    <t>8142 Road and ail construction operatives</t>
+  </si>
+  <si>
+    <t>8149 construction operatives n.e.c.</t>
+  </si>
+  <si>
+    <t>8213 bus and coach drivers</t>
+  </si>
+  <si>
+    <t>8222 fork-lift truck drivers</t>
+  </si>
+  <si>
+    <t>8229 mobile machine drivers &amp; operatives</t>
+  </si>
+  <si>
+    <t>9111 farm workers</t>
+  </si>
+  <si>
+    <t>9119 fishng &amp; agric reltd occupatns nec.</t>
+  </si>
+  <si>
+    <t>9121 labrers build &amp; woodworking trades</t>
+  </si>
+  <si>
+    <t>9133 printing machine minders and assist</t>
+  </si>
+  <si>
+    <t>9139 labrs process &amp; plant opertns nec.</t>
+  </si>
+  <si>
+    <t>9219 elementary office occupatns n.e.c.</t>
+  </si>
+  <si>
+    <t>9234 launderers, dry cleaners, pressers</t>
+  </si>
+  <si>
+    <t>9244 school mid-day assistants</t>
+  </si>
+  <si>
+    <t>9251 shelf fillers</t>
+  </si>
+  <si>
+    <t>9231 window cleaners</t>
+  </si>
+  <si>
+    <t>6231 housekprs and related occupations</t>
+  </si>
+  <si>
+    <t>9259 elementary sales occupations nec.</t>
+  </si>
+  <si>
+    <t>mostly bachelor+</t>
+  </si>
+  <si>
+    <t>occupation type</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>63 occupations dropped in first filter</t>
+  </si>
+  <si>
+    <t>A-level</t>
+  </si>
+  <si>
+    <t>93 occupations</t>
+  </si>
+  <si>
+    <t>62 occupations</t>
+  </si>
+  <si>
+    <t>LFS data</t>
+  </si>
+  <si>
+    <t>212 occupations</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>5119 agricult and fishing trades n.e.c.</t>
+  </si>
+  <si>
+    <t>3520 legal associate professionals</t>
+  </si>
+  <si>
+    <t>9134 packers, bottlers, canners, fillers</t>
+  </si>
+  <si>
+    <t>9211 post wrkr, mail sort, msngr, courir</t>
+  </si>
+  <si>
+    <t>(running currently)</t>
   </si>
 </sst>
 </file>
@@ -679,7 +814,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000_);\(0.0000\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,19 +883,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -769,7 +891,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -824,8 +946,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -911,11 +1045,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1024,6 +1169,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1048,17 +1196,45 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1083,13 +1259,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>3174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>91590</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>2164</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1127,13 +1303,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>488949</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>351036</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>126634</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1171,13 +1347,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>116895</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>65665</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1215,13 +1391,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>150991</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>255785</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>20644</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1262,6 +1438,21 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Garro Marin, Cesar Luis" id="{F8FA700A-AE49-4429-93AD-D984B9D4E946}" userId="S::cesarlgm@bu.edu::36cbf52c-4f41-4c43-b009-396b31daf79a" providerId="AD"/>
 </personList>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6E1AAA98-575F-4DF4-95E4-6D2B2E058BC3}" name="Table1" displayName="Table1" ref="B3:C65" totalsRowShown="0">
+  <autoFilter ref="B3:C65" xr:uid="{6E1AAA98-575F-4DF4-95E4-6D2B2E058BC3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:C65">
+    <sortCondition ref="C4:C65"/>
+    <sortCondition ref="B4:B65"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{68371081-CFE2-4553-AA71-2BCFC6607503}" name="occupation"/>
+    <tableColumn id="2" xr3:uid="{0169157B-D786-4369-8A60-0C9A8D89EE6B}" name="occupation type"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1594,7 +1785,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1608,7 +1799,7 @@
     <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C2" s="5">
         <v>212</v>
@@ -1616,7 +1807,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="C3">
         <v>156</v>
@@ -1624,7 +1815,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C4">
         <v>93</v>
@@ -1632,7 +1823,7 @@
     </row>
     <row r="5" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C5" s="19">
         <v>62</v>
@@ -1646,14 +1837,540 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621AD9AE-E34E-4A18-B651-4D2CF9D0D43B}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="17.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.29593120000000001</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.43839400000000001</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.67276720000000001</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.1945896</v>
+      </c>
+      <c r="G6" s="18">
+        <f>+C6/$B6</f>
+        <v>1.481405137410317</v>
+      </c>
+      <c r="H6" s="18">
+        <f t="shared" ref="H6:I8" si="0">+D6/$B6</f>
+        <v>2.2733905718626493</v>
+      </c>
+      <c r="I6" s="18">
+        <f t="shared" si="0"/>
+        <v>0.65755013327422052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.27454250000000002</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.5662315</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.65564169999999999</v>
+      </c>
+      <c r="E7" s="9">
+        <v>5.9034499999999997E-2</v>
+      </c>
+      <c r="G7" s="18">
+        <f t="shared" ref="G7:G8" si="1">+C7/$B7</f>
+        <v>2.0624548111858818</v>
+      </c>
+      <c r="H7" s="18">
+        <f t="shared" si="0"/>
+        <v>2.3881246073012372</v>
+      </c>
+      <c r="I7" s="18">
+        <f t="shared" si="0"/>
+        <v>0.21502863855322943</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="20">
+        <v>0.27069300000000002</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0.62212940000000005</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.54990119999999998</v>
+      </c>
+      <c r="E8" s="20">
+        <v>7.5414999999999996E-2</v>
+      </c>
+      <c r="G8" s="18">
+        <f t="shared" si="1"/>
+        <v>2.2982840339425108</v>
+      </c>
+      <c r="H8" s="18">
+        <f t="shared" si="0"/>
+        <v>2.0314570380467907</v>
+      </c>
+      <c r="I8" s="18">
+        <f t="shared" si="0"/>
+        <v>0.27859974214331362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="G4:I4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G6:G8">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H8">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:I8">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C324394-3725-49AA-88D9-CE062D28E523}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="50"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="35"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="40"/>
+      <c r="C4" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="C5" s="9">
+        <v>-80.663570000000007</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="47">
+        <v>93</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="C6" s="9">
+        <v>-4.4692429999999996</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="48">
+        <v>93</v>
+      </c>
+      <c r="H6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>-0.73104380000000002</v>
+      </c>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="C8" s="9">
+        <v>-0.25560250000000001</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="28">
+        <v>7.3860710000000003</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="19">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C9" s="9"/>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="28">
+        <v>82.432980000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B10" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="9">
+        <v>9.4639000000000008E-3</v>
+      </c>
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C11" s="9"/>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="28">
+        <v>6795.1970000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B12" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.48917830000000001</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="28">
+        <v>9.3188329999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="35">
+        <v>0.9</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.91621580000000002</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="49">
+        <v>89.044470000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B14" s="35">
+        <v>0.95</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1.69503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="45">
+        <v>0.99</v>
+      </c>
+      <c r="C15" s="46">
+        <v>789.47889999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="40"/>
+      <c r="C20" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="C21" s="9">
+        <v>-80.663570000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="C22" s="9">
+        <v>-4.4692429999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="9">
+        <v>-0.73104380000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B24" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="C24" s="9">
+        <v>-0.25560250000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="9">
+        <v>9.4639000000000008E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0.48917830000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="35">
+        <v>0.9</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0.91621580000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B30" s="35">
+        <v>0.95</v>
+      </c>
+      <c r="C30" s="9">
+        <v>1.69503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="45">
+        <v>0.99</v>
+      </c>
+      <c r="C31" s="46">
+        <v>789.47889999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1118EAC5-EE01-4F6F-831E-9781C531891C}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A2:E18"/>
+  <dimension ref="A2:E19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1665,209 +2382,215 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="32"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="10" t="s">
+      <c r="A2" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="80"/>
+    </row>
+    <row r="4" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="76"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>29</v>
+      <c r="A7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>60</v>
+      <c r="A12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>34</v>
+      <c r="A13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>36</v>
+        <v>219</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="D16" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="22" t="s">
+      <c r="D17" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1875,14 +2598,1159 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3794C7-1BD2-4385-825C-867473C3C3FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CAF832-E4CD-4D78-919A-B2CAC1381075}">
+  <dimension ref="B1:U15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="9.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B1" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="H1" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="N1" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+    </row>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B2" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="H2" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+    </row>
+    <row r="3" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4">
+        <v>2001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2006</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2012</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2017</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4">
+        <v>2001</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2006</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2012</v>
+      </c>
+      <c r="L3" s="4">
+        <v>2017</v>
+      </c>
+      <c r="O3" s="73">
+        <v>2001</v>
+      </c>
+      <c r="P3" s="73">
+        <v>2006</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>2012</v>
+      </c>
+      <c r="R3" s="73">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="30">
+        <v>7981861</v>
+      </c>
+      <c r="D4" s="30">
+        <v>10231505</v>
+      </c>
+      <c r="E4" s="30">
+        <v>8313300</v>
+      </c>
+      <c r="F4" s="30">
+        <v>8070972</v>
+      </c>
+      <c r="H4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="30">
+        <v>6725289</v>
+      </c>
+      <c r="J4" s="30">
+        <v>8678678</v>
+      </c>
+      <c r="K4" s="30">
+        <v>7104277</v>
+      </c>
+      <c r="L4" s="30">
+        <v>6922038</v>
+      </c>
+      <c r="M4" s="30"/>
+      <c r="N4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O4" s="30">
+        <v>5577753</v>
+      </c>
+      <c r="P4" s="30">
+        <v>7149632</v>
+      </c>
+      <c r="Q4" s="30">
+        <v>5806276</v>
+      </c>
+      <c r="R4" s="30">
+        <v>5688521</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="30">
+        <v>4050143</v>
+      </c>
+      <c r="D5" s="30">
+        <v>5510746</v>
+      </c>
+      <c r="E5" s="30">
+        <v>5395905</v>
+      </c>
+      <c r="F5" s="30">
+        <v>5867597</v>
+      </c>
+      <c r="H5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I5" s="30">
+        <v>3565261</v>
+      </c>
+      <c r="J5" s="30">
+        <v>4880824</v>
+      </c>
+      <c r="K5" s="30">
+        <v>4868539</v>
+      </c>
+      <c r="L5" s="30">
+        <v>5299063</v>
+      </c>
+      <c r="M5" s="30"/>
+      <c r="N5" t="s">
+        <v>211</v>
+      </c>
+      <c r="O5" s="30">
+        <v>3092102</v>
+      </c>
+      <c r="P5" s="30">
+        <v>4227813</v>
+      </c>
+      <c r="Q5" s="30">
+        <v>4250691</v>
+      </c>
+      <c r="R5" s="30">
+        <v>4636202</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="30">
+        <v>5428050</v>
+      </c>
+      <c r="D6" s="30">
+        <v>8788111</v>
+      </c>
+      <c r="E6" s="30">
+        <v>10726624</v>
+      </c>
+      <c r="F6" s="30">
+        <v>12712382</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="30">
+        <v>3983805</v>
+      </c>
+      <c r="J6" s="30">
+        <v>6486682</v>
+      </c>
+      <c r="K6" s="30">
+        <v>8350705</v>
+      </c>
+      <c r="L6" s="30">
+        <v>9857415</v>
+      </c>
+      <c r="M6" s="30"/>
+      <c r="N6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="30">
+        <v>2718235</v>
+      </c>
+      <c r="P6" s="30">
+        <v>4423765</v>
+      </c>
+      <c r="Q6" s="30">
+        <v>5851196</v>
+      </c>
+      <c r="R6" s="30">
+        <v>7088689</v>
+      </c>
+      <c r="U6" s="78"/>
+    </row>
+    <row r="7" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="30">
+        <f>+SUM(C4:C6)</f>
+        <v>17460054</v>
+      </c>
+      <c r="D7" s="30">
+        <f t="shared" ref="D7" si="0">+SUM(D4:D6)</f>
+        <v>24530362</v>
+      </c>
+      <c r="E7" s="30">
+        <f t="shared" ref="E7" si="1">+SUM(E4:E6)</f>
+        <v>24435829</v>
+      </c>
+      <c r="F7" s="30">
+        <f>+SUM(F4:F6)</f>
+        <v>26650951</v>
+      </c>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="30">
+        <f>+SUM(I4:I6)</f>
+        <v>14274355</v>
+      </c>
+      <c r="J7" s="30">
+        <f>+SUM(J4:J6)</f>
+        <v>20046184</v>
+      </c>
+      <c r="K7" s="30">
+        <f>+SUM(K4:K6)</f>
+        <v>20323521</v>
+      </c>
+      <c r="L7" s="30">
+        <f>+SUM(L4:L6)</f>
+        <v>22078516</v>
+      </c>
+      <c r="M7" s="30"/>
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="30">
+        <f>+SUM(O4:O6)</f>
+        <v>11388090</v>
+      </c>
+      <c r="P7" s="30">
+        <f t="shared" ref="P7:R7" si="2">+SUM(P4:P6)</f>
+        <v>15801210</v>
+      </c>
+      <c r="Q7" s="30">
+        <f t="shared" si="2"/>
+        <v>15908163</v>
+      </c>
+      <c r="R7" s="30">
+        <f t="shared" si="2"/>
+        <v>17413412</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="C9" s="4">
+        <v>2001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2006</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2012</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2017</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2001</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2006</v>
+      </c>
+      <c r="K9" s="4">
+        <v>2012</v>
+      </c>
+      <c r="L9" s="4">
+        <v>2017</v>
+      </c>
+      <c r="O9" s="4">
+        <v>2001</v>
+      </c>
+      <c r="P9" s="4">
+        <v>2006</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>2012</v>
+      </c>
+      <c r="R9" s="4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="72">
+        <f>+C4/C$7</f>
+        <v>0.45714984615740595</v>
+      </c>
+      <c r="D10" s="72">
+        <f t="shared" ref="D10:F10" si="3">+D4/D$7</f>
+        <v>0.41709555692655492</v>
+      </c>
+      <c r="E10" s="72">
+        <f t="shared" si="3"/>
+        <v>0.34020945227600013</v>
+      </c>
+      <c r="F10" s="72">
+        <f t="shared" si="3"/>
+        <v>0.30283992492425504</v>
+      </c>
+      <c r="H10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="72">
+        <f>+I4/I$7</f>
+        <v>0.4711448608360938</v>
+      </c>
+      <c r="J10" s="72">
+        <f>+J4/J$7</f>
+        <v>0.43293416841828847</v>
+      </c>
+      <c r="K10" s="72">
+        <f>+K4/K$7</f>
+        <v>0.34955936030966289</v>
+      </c>
+      <c r="L10" s="72">
+        <f>+L4/L$7</f>
+        <v>0.31351916949490627</v>
+      </c>
+      <c r="M10" s="72"/>
+      <c r="N10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" s="72">
+        <f>+O4/O$7</f>
+        <v>0.48978827880706949</v>
+      </c>
+      <c r="P10" s="72">
+        <f t="shared" ref="P10:R10" si="4">+P4/P$7</f>
+        <v>0.45247370296325407</v>
+      </c>
+      <c r="Q10" s="72">
+        <f t="shared" si="4"/>
+        <v>0.36498720813961988</v>
+      </c>
+      <c r="R10" s="72">
+        <f t="shared" si="4"/>
+        <v>0.32667469189840564</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="72">
+        <f t="shared" ref="C11:F11" si="5">+C5/C$7</f>
+        <v>0.23196623561416246</v>
+      </c>
+      <c r="D11" s="72">
+        <f t="shared" si="5"/>
+        <v>0.22465000720331807</v>
+      </c>
+      <c r="E11" s="72">
+        <f t="shared" si="5"/>
+        <v>0.2208193959779306</v>
+      </c>
+      <c r="F11" s="72">
+        <f t="shared" si="5"/>
+        <v>0.2201646387778057</v>
+      </c>
+      <c r="H11" t="s">
+        <v>211</v>
+      </c>
+      <c r="I11" s="72">
+        <f>+I5/I$7</f>
+        <v>0.24976687212837287</v>
+      </c>
+      <c r="J11" s="72">
+        <f>+J5/J$7</f>
+        <v>0.24347895838928746</v>
+      </c>
+      <c r="K11" s="72">
+        <f>+K5/K$7</f>
+        <v>0.23955194574798333</v>
+      </c>
+      <c r="L11" s="72">
+        <f>+L5/L$7</f>
+        <v>0.24000992639179192</v>
+      </c>
+      <c r="M11" s="72"/>
+      <c r="N11" t="s">
+        <v>211</v>
+      </c>
+      <c r="O11" s="72">
+        <f t="shared" ref="O11:R13" si="6">+O5/O$7</f>
+        <v>0.27152068520708916</v>
+      </c>
+      <c r="P11" s="72">
+        <f t="shared" si="6"/>
+        <v>0.26756261071145815</v>
+      </c>
+      <c r="Q11" s="72">
+        <f t="shared" si="6"/>
+        <v>0.26720187616885743</v>
+      </c>
+      <c r="R11" s="72">
+        <f t="shared" si="6"/>
+        <v>0.26624316934555964</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="72">
+        <f t="shared" ref="C12:F12" si="7">+C6/C$7</f>
+        <v>0.31088391822843159</v>
+      </c>
+      <c r="D12" s="72">
+        <f t="shared" si="7"/>
+        <v>0.35825443587012701</v>
+      </c>
+      <c r="E12" s="72">
+        <f t="shared" si="7"/>
+        <v>0.43897115174606927</v>
+      </c>
+      <c r="F12" s="72">
+        <f t="shared" si="7"/>
+        <v>0.47699543629793922</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="72">
+        <f>+I6/I$7</f>
+        <v>0.2790882670355333</v>
+      </c>
+      <c r="J12" s="72">
+        <f>+J6/J$7</f>
+        <v>0.32358687319242407</v>
+      </c>
+      <c r="K12" s="72">
+        <f>+K6/K$7</f>
+        <v>0.41088869394235378</v>
+      </c>
+      <c r="L12" s="72">
+        <f>+L6/L$7</f>
+        <v>0.44647090411330181</v>
+      </c>
+      <c r="M12" s="72"/>
+      <c r="N12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="72">
+        <f t="shared" si="6"/>
+        <v>0.23869103598584135</v>
+      </c>
+      <c r="P12" s="72">
+        <f t="shared" si="6"/>
+        <v>0.27996368632528773</v>
+      </c>
+      <c r="Q12" s="72">
+        <f t="shared" si="6"/>
+        <v>0.36781091569152263</v>
+      </c>
+      <c r="R12" s="72">
+        <f t="shared" si="6"/>
+        <v>0.40708213875603472</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="72">
+        <f t="shared" ref="C13:F13" si="8">+C7/C$7</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="72">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="72">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="72">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="72">
+        <f>+I7/I$7</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="72">
+        <f>+J7/J$7</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="72">
+        <f>+K7/K$7</f>
+        <v>1</v>
+      </c>
+      <c r="L13" s="72">
+        <f>+L7/L$7</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="72"/>
+      <c r="N13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" s="72">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P13" s="72">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="72">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R13" s="72">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DD79C6-8E03-4472-BA01-B1AB9175E2E7}">
+  <dimension ref="B2:C65"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="70"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B40" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>205</v>
+      </c>
+      <c r="C43" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B49" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>194</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>196</v>
+      </c>
+      <c r="C57" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>197</v>
+      </c>
+      <c r="C58" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>199</v>
+      </c>
+      <c r="C60" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>204</v>
+      </c>
+      <c r="C62" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>202</v>
+      </c>
+      <c r="C64" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>203</v>
+      </c>
+      <c r="C65" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3794C7-1BD2-4385-825C-867473C3C3FE}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1892,13 +3760,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
       <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1920,7 +3788,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B3" s="9">
         <v>0.55384109999999998</v>
@@ -1992,7 +3860,7 @@
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="41" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B7" s="57">
         <v>156</v>
@@ -2012,12 +3880,12 @@
       <c r="E8" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="13"/>
@@ -2038,17 +3906,17 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B13" s="18">
-        <v>0.36766589999999999</v>
+        <v>0.45421980000000001</v>
       </c>
       <c r="C13" s="18">
-        <v>0.2372243</v>
+        <v>0.30039379999999999</v>
       </c>
       <c r="D13" s="18">
         <f>+C13-B13</f>
-        <v>-0.13044159999999999</v>
+        <v>-0.15382600000000002</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -2056,14 +3924,14 @@
         <v>9</v>
       </c>
       <c r="B14" s="18">
-        <v>0.14269889999999999</v>
+        <v>0.23248099999999999</v>
       </c>
       <c r="C14" s="18">
-        <v>0.17757719999999999</v>
+        <v>0.22079660000000001</v>
       </c>
       <c r="D14" s="18">
         <f t="shared" ref="D14:D15" si="0">+C14-B14</f>
-        <v>3.4878300000000001E-2</v>
+        <v>-1.1684399999999984E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -2071,14 +3939,14 @@
         <v>10</v>
       </c>
       <c r="B15" s="18">
-        <v>0.48963519999999999</v>
+        <v>0.3132991</v>
       </c>
       <c r="C15" s="18">
-        <v>0.58519849999999995</v>
+        <v>0.4788096</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>9.5563299999999962E-2</v>
+        <v>0.1655105</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2094,7 +3962,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B19">
         <v>0.54600000000000004</v>
@@ -2147,7 +4015,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B23">
         <v>0.57699999999999996</v>
@@ -2200,7 +4068,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B27">
         <v>0.60899999999999999</v>
@@ -2253,7 +4121,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B31">
         <v>0.42599999999999999</v>
@@ -2298,7 +4166,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="52" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B34" s="53">
         <v>156</v>
@@ -2316,12 +4184,12 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="13"/>
@@ -2342,17 +4210,17 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="15" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B40" s="18">
-        <v>0.63165769999999999</v>
+        <v>0.48978830000000001</v>
       </c>
       <c r="C40" s="18">
-        <v>0.39438060000000003</v>
+        <v>0.32667469999999998</v>
       </c>
       <c r="D40" s="18">
         <f>+C40-B40</f>
-        <v>-0.23727709999999996</v>
+        <v>-0.16311360000000003</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -2360,14 +4228,14 @@
         <v>9</v>
       </c>
       <c r="B41" s="18">
-        <v>0.23971990000000001</v>
+        <v>0.2715207</v>
       </c>
       <c r="C41" s="18">
-        <v>0.30047669999999999</v>
+        <v>0.26624320000000001</v>
       </c>
       <c r="D41" s="18">
         <f t="shared" ref="D41:D42" si="2">+C41-B41</f>
-        <v>6.0756799999999972E-2</v>
+        <v>-5.2774999999999905E-3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -2375,14 +4243,14 @@
         <v>10</v>
       </c>
       <c r="B42" s="18">
-        <v>0.1286225</v>
+        <v>0.23869099999999999</v>
       </c>
       <c r="C42" s="18">
-        <v>0.30514259999999999</v>
+        <v>0.4070821</v>
       </c>
       <c r="D42" s="18">
         <f t="shared" si="2"/>
-        <v>0.17652009999999999</v>
+        <v>0.16839110000000002</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -2397,7 +4265,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B46">
         <v>0.51300000000000001</v>
@@ -2450,7 +4318,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B50">
         <v>0.59299999999999997</v>
@@ -2503,7 +4371,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B54">
         <v>0.63500000000000001</v>
@@ -2556,7 +4424,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B58" s="18">
         <v>0.45</v>
@@ -2601,7 +4469,7 @@
     </row>
     <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="52" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B61" s="53">
         <v>62</v>
@@ -2626,19 +4494,18 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070238CE-FD1A-4190-90A2-45E1D7B1D1C6}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="91" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="91" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2648,21 +4515,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>164</v>
+      <c r="A1" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="A3" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
@@ -2713,19 +4580,19 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2734,16 +4601,16 @@
         <v/>
       </c>
       <c r="B9" s="44">
-        <v>-7.0000000000000001E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="C9" s="44">
-        <v>-4.0000000000000001E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="D9" s="44">
-        <v>-6.0000000000000001E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E9" s="44">
-        <v>-5.0000000000000001E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2754,19 +4621,19 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -2799,16 +4666,16 @@
         <v>College+</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -2817,16 +4684,16 @@
         <v/>
       </c>
       <c r="B15" s="44">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="C15" s="44">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="C15" s="44">
-        <v>-3.0000000000000001E-3</v>
-      </c>
       <c r="D15" s="44">
-        <v>-3.0000000000000001E-3</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="E15" s="44">
-        <v>-3.0000000000000001E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -2866,7 +4733,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B19">
         <v>156</v>
@@ -2900,13 +4767,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="51"/>
@@ -2916,11 +4783,11 @@
       <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>164</v>
+      <c r="A23" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="79" t="s">
+        <v>143</v>
       </c>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
@@ -2934,13 +4801,13 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="1:5" ht="33.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="60" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
+      <c r="A25" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
@@ -2991,7 +4858,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B30" s="43" t="str">
         <f>"0.480***"</f>
@@ -3040,7 +4907,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B33" s="43" t="str">
         <f>"-0.018**"</f>
@@ -3168,7 +5035,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B41">
         <v>62</v>
@@ -3202,13 +5069,13 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="61" t="s">
+      <c r="A43" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
     </row>
     <row r="45" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
@@ -3224,7 +5091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EAE855-2047-4291-BF60-109D5E6A6769}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -3232,7 +5099,7 @@
   <dimension ref="B2:F32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3244,17 +5111,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" t="s">
-        <v>164</v>
+      <c r="B2" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="10" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="D4" s="40">
         <v>212</v>
@@ -3262,7 +5129,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>22</v>
@@ -3270,7 +5137,7 @@
     </row>
     <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="41" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D6" s="41">
         <v>9</v>
@@ -3279,25 +5146,25 @@
     <row r="7" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="25" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="25" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
@@ -3305,13 +5172,13 @@
         <v>2121</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="E11">
         <v>1114</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
@@ -3319,13 +5186,13 @@
         <v>2129</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="E12">
         <v>1122</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
@@ -3333,13 +5200,13 @@
         <v>2434</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="E13">
         <v>1137</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
@@ -3347,13 +5214,13 @@
         <v>5213</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E14">
         <v>2121</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
@@ -3361,13 +5228,13 @@
         <v>5312</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E15">
         <v>2129</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
@@ -3375,13 +5242,13 @@
         <v>5421</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E16">
         <v>2434</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
@@ -3389,13 +5256,13 @@
         <v>5431</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E17">
         <v>2441</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
@@ -3403,13 +5270,13 @@
         <v>6221</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E18">
         <v>3229</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
@@ -3417,13 +5284,13 @@
         <v>8215</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E19">
         <v>3551</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
@@ -3431,7 +5298,7 @@
         <v>5213</v>
       </c>
       <c r="F20" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
@@ -3439,7 +5306,7 @@
         <v>5231</v>
       </c>
       <c r="F21" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
@@ -3447,7 +5314,7 @@
         <v>5241</v>
       </c>
       <c r="F22" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
@@ -3455,7 +5322,7 @@
         <v>5312</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
@@ -3463,7 +5330,7 @@
         <v>5321</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
@@ -3471,7 +5338,7 @@
         <v>5412</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
@@ -3479,7 +5346,7 @@
         <v>5421</v>
       </c>
       <c r="F26" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
@@ -3487,7 +5354,7 @@
         <v>5431</v>
       </c>
       <c r="F27" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
@@ -3495,7 +5362,7 @@
         <v>6221</v>
       </c>
       <c r="F28" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
@@ -3503,7 +5370,7 @@
         <v>8135</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
@@ -3511,7 +5378,7 @@
         <v>8214</v>
       </c>
       <c r="F30" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
@@ -3519,7 +5386,7 @@
         <v>8215</v>
       </c>
       <c r="F31" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
@@ -3527,7 +5394,7 @@
         <v>9133</v>
       </c>
       <c r="F32" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3539,19 +5406,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FC4A17-C099-4E4B-9183-D165FAAEB730}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="12.7265625" customWidth="1"/>
     <col min="14" max="14" width="12.90625" bestFit="1" customWidth="1"/>
@@ -3561,120 +5429,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" t="s">
-        <v>165</v>
-      </c>
+      <c r="A1" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
     </row>
     <row r="3" spans="1:29" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
+      <c r="A3" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
       <c r="AC3" s="32"/>
     </row>
     <row r="4" spans="1:29" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="34"/>
       <c r="B4" s="33" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="27"/>
       <c r="G4" s="3" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="27"/>
       <c r="O4" s="3" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="T4" s="23"/>
       <c r="U4" s="25" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="V4" s="25" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="W4" s="25" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="X4" s="25" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="Y4" s="25" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="Z4" s="25" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="AA4" s="25" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="AB4" s="25" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B5" s="28">
         <v>1</v>
@@ -3682,7 +5556,7 @@
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="F5" s="26" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G5" s="28">
         <v>1</v>
@@ -3693,7 +5567,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
       <c r="N5" s="26" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="O5" s="28">
         <v>1</v>
@@ -3702,7 +5576,7 @@
       <c r="Q5" s="28"/>
       <c r="R5" s="28"/>
       <c r="T5" s="26" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="U5" s="29">
         <v>1</v>
@@ -3717,20 +5591,20 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B6" s="28">
-        <v>0.51829999999999998</v>
+        <v>0.52429999999999999</v>
       </c>
       <c r="C6" s="28">
         <v>1</v>
       </c>
       <c r="D6" s="28"/>
       <c r="F6" s="26" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="G6" s="28">
-        <v>0.25540000000000002</v>
+        <v>0.2596</v>
       </c>
       <c r="H6" s="28">
         <v>1</v>
@@ -3740,10 +5614,10 @@
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
       <c r="N6" s="26" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="O6" s="28">
-        <v>4.3900000000000002E-2</v>
+        <v>4.5699999999999998E-2</v>
       </c>
       <c r="P6" s="28">
         <v>1</v>
@@ -3751,10 +5625,10 @@
       <c r="Q6" s="28"/>
       <c r="R6" s="28"/>
       <c r="T6" s="26" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="U6" s="29">
-        <v>0.63819999999999999</v>
+        <v>0.66120000000000001</v>
       </c>
       <c r="V6" s="29">
         <v>1</v>
@@ -3768,25 +5642,25 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B7" s="28">
-        <v>0.50839999999999996</v>
+        <v>0.50409999999999999</v>
       </c>
       <c r="C7" s="28">
-        <v>0.76880000000000004</v>
+        <v>0.75739999999999996</v>
       </c>
       <c r="D7" s="28">
         <v>1</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="G7" s="28">
-        <v>0.28789999999999999</v>
+        <v>0.29580000000000001</v>
       </c>
       <c r="H7" s="28">
-        <v>0.63729999999999998</v>
+        <v>0.64780000000000004</v>
       </c>
       <c r="I7" s="28">
         <v>1</v>
@@ -3795,26 +5669,26 @@
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
       <c r="N7" s="26" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="O7" s="28">
-        <v>0.2888</v>
+        <v>0.30869999999999997</v>
       </c>
       <c r="P7" s="28">
-        <v>0.2281</v>
+        <v>0.22389999999999999</v>
       </c>
       <c r="Q7" s="28">
         <v>1</v>
       </c>
       <c r="R7" s="28"/>
       <c r="T7" s="26" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="U7" s="29">
-        <v>0.21809999999999999</v>
+        <v>0.23580000000000001</v>
       </c>
       <c r="V7" s="29">
-        <v>0.23069999999999999</v>
+        <v>0.2475</v>
       </c>
       <c r="W7" s="29">
         <v>1</v>
@@ -3827,16 +5701,16 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="F8" s="26" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G8" s="28">
-        <v>0.26</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="H8" s="28">
-        <v>0.25380000000000003</v>
+        <v>0.2651</v>
       </c>
       <c r="I8" s="28">
-        <v>0.25659999999999999</v>
+        <v>0.27389999999999998</v>
       </c>
       <c r="J8" s="28">
         <v>1</v>
@@ -3844,31 +5718,31 @@
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
       <c r="N8" s="26" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="O8" s="28">
-        <v>0.13589999999999999</v>
+        <v>0.155</v>
       </c>
       <c r="P8" s="28">
-        <v>0.25690000000000002</v>
+        <v>0.24640000000000001</v>
       </c>
       <c r="Q8" s="28">
-        <v>0.3261</v>
+        <v>0.34210000000000002</v>
       </c>
       <c r="R8" s="28">
         <v>1</v>
       </c>
       <c r="T8" s="26" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="U8" s="29">
-        <v>0.30109999999999998</v>
+        <v>0.32369999999999999</v>
       </c>
       <c r="V8" s="29">
-        <v>0.29310000000000003</v>
+        <v>0.31590000000000001</v>
       </c>
       <c r="W8" s="29">
-        <v>0.74509999999999998</v>
+        <v>0.75149999999999995</v>
       </c>
       <c r="X8" s="29">
         <v>1</v>
@@ -3880,38 +5754,38 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="F9" s="26" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="G9" s="28">
-        <v>0.35020000000000001</v>
+        <v>0.37580000000000002</v>
       </c>
       <c r="H9" s="28">
-        <v>0.30549999999999999</v>
+        <v>0.31369999999999998</v>
       </c>
       <c r="I9" s="28">
-        <v>0.32550000000000001</v>
+        <v>0.33760000000000001</v>
       </c>
       <c r="J9" s="28">
-        <v>0.58360000000000001</v>
+        <v>0.59350000000000003</v>
       </c>
       <c r="K9" s="28">
         <v>1</v>
       </c>
       <c r="L9" s="28"/>
       <c r="T9" s="26" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="U9" s="29">
-        <v>0.36630000000000001</v>
+        <v>0.37980000000000003</v>
       </c>
       <c r="V9" s="29">
-        <v>0.33350000000000002</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="W9" s="29">
-        <v>0.50819999999999999</v>
+        <v>0.52549999999999997</v>
       </c>
       <c r="X9" s="29">
-        <v>0.66100000000000003</v>
+        <v>0.67530000000000001</v>
       </c>
       <c r="Y9" s="29">
         <v>1</v>
@@ -3922,43 +5796,43 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="F10" s="26" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="G10" s="28">
-        <v>0.29680000000000001</v>
+        <v>0.31819999999999998</v>
       </c>
       <c r="H10" s="28">
-        <v>0.4209</v>
+        <v>0.42980000000000002</v>
       </c>
       <c r="I10" s="28">
-        <v>0.39650000000000002</v>
+        <v>0.40849999999999997</v>
       </c>
       <c r="J10" s="28">
-        <v>0.43440000000000001</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="K10" s="28">
-        <v>0.46660000000000001</v>
+        <v>0.47870000000000001</v>
       </c>
       <c r="L10" s="28">
         <v>1</v>
       </c>
       <c r="T10" s="26" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="U10" s="29">
-        <v>0.36059999999999998</v>
+        <v>0.38229999999999997</v>
       </c>
       <c r="V10" s="29">
-        <v>0.33729999999999999</v>
+        <v>0.35959999999999998</v>
       </c>
       <c r="W10" s="29">
-        <v>0.17580000000000001</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="X10" s="29">
-        <v>0.2117</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="Y10" s="29">
-        <v>0.23380000000000001</v>
+        <v>0.2462</v>
       </c>
       <c r="Z10" s="29">
         <v>1</v>
@@ -3968,25 +5842,25 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="T11" s="26" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="U11" s="29">
-        <v>0.31609999999999999</v>
+        <v>0.33560000000000001</v>
       </c>
       <c r="V11" s="29">
-        <v>0.3785</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="W11" s="29">
-        <v>0.26490000000000002</v>
+        <v>0.27029999999999998</v>
       </c>
       <c r="X11" s="29">
-        <v>0.29549999999999998</v>
+        <v>0.30640000000000001</v>
       </c>
       <c r="Y11" s="29">
-        <v>0.26300000000000001</v>
+        <v>0.27229999999999999</v>
       </c>
       <c r="Z11" s="29">
-        <v>0.34379999999999999</v>
+        <v>0.35289999999999999</v>
       </c>
       <c r="AA11" s="29">
         <v>1</v>
@@ -3995,42 +5869,48 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="T12" s="26" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="U12" s="29">
-        <v>0.48359999999999997</v>
+        <v>0.50249999999999995</v>
       </c>
       <c r="V12" s="29">
-        <v>0.51070000000000004</v>
+        <v>0.52749999999999997</v>
       </c>
       <c r="W12" s="29">
-        <v>0.25890000000000002</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="X12" s="29">
-        <v>0.34379999999999999</v>
+        <v>0.35730000000000001</v>
       </c>
       <c r="Y12" s="29">
-        <v>0.40450000000000003</v>
+        <v>0.4093</v>
       </c>
       <c r="Z12" s="29">
-        <v>0.37290000000000001</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="AA12" s="29">
-        <v>0.59109999999999996</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="AB12" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>139</v>
+      <c r="A14" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="80">
+        <v>156</v>
       </c>
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>152</v>
+      <c r="A15" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="80">
+        <v>16720</v>
       </c>
       <c r="T15" s="4"/>
     </row>
@@ -4042,15 +5922,1174 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F3C55B-20D0-4D01-AB90-788A157F68F3}">
+  <dimension ref="A1:V26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="82">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="83"/>
+      <c r="B3" s="84"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B4" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="81"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B5" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="R5" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="S5" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="T5" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="U5" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" s="37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="18">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="18">
+        <v>0.52429999999999999</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="18">
+        <v>0.50409999999999999</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.75739999999999996</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="18">
+        <v>-0.10829999999999999</v>
+      </c>
+      <c r="C9" s="18">
+        <v>-9.69E-2</v>
+      </c>
+      <c r="D9" s="18">
+        <v>-2.7699999999999999E-2</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="18">
+        <v>-8.0999999999999996E-3</v>
+      </c>
+      <c r="C10" s="18">
+        <v>-8.8999999999999999E-3</v>
+      </c>
+      <c r="D10" s="18">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0.2596</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="18">
+        <v>-1.83E-2</v>
+      </c>
+      <c r="C11" s="18">
+        <v>-5.3600000000000002E-2</v>
+      </c>
+      <c r="D11" s="18">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0.29580000000000001</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0.64780000000000004</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="18">
+        <v>-0.16220000000000001</v>
+      </c>
+      <c r="C12" s="18">
+        <v>-0.20030000000000001</v>
+      </c>
+      <c r="D12" s="18">
+        <v>-0.1011</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0.2651</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0.27389999999999998</v>
+      </c>
+      <c r="H12" s="18">
+        <v>1</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="18">
+        <v>-0.12180000000000001</v>
+      </c>
+      <c r="C13" s="18">
+        <v>-0.14349999999999999</v>
+      </c>
+      <c r="D13" s="18">
+        <v>-4.7600000000000003E-2</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0.37580000000000002</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0.31369999999999998</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0.33760000000000001</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0.59350000000000003</v>
+      </c>
+      <c r="I13" s="18">
+        <v>1</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A14" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="18">
+        <v>2.93E-2</v>
+      </c>
+      <c r="C14" s="18">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="D14" s="18">
+        <v>7.3400000000000007E-2</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0.31819999999999998</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0.42980000000000002</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0.40849999999999997</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0.47870000000000001</v>
+      </c>
+      <c r="J14" s="18">
+        <v>1</v>
+      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A15" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="18">
+        <v>-0.1754</v>
+      </c>
+      <c r="C15" s="18">
+        <v>-0.1913</v>
+      </c>
+      <c r="D15" s="18">
+        <v>-0.1711</v>
+      </c>
+      <c r="E15" s="18">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="F15" s="18">
+        <v>-1.03E-2</v>
+      </c>
+      <c r="G15" s="18">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0.21290000000000001</v>
+      </c>
+      <c r="I15" s="18">
+        <v>0.1653</v>
+      </c>
+      <c r="J15" s="18">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="K15" s="18">
+        <v>1</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="18">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C16" s="18">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="D16" s="18">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0.13289999999999999</v>
+      </c>
+      <c r="F16" s="18">
+        <v>-5.5999999999999999E-3</v>
+      </c>
+      <c r="G16" s="18">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="H16" s="18">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="I16" s="18">
+        <v>0.1512</v>
+      </c>
+      <c r="J16" s="18">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="K16" s="18">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="L16" s="18">
+        <v>1</v>
+      </c>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A17" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="18">
+        <v>-3.5099999999999999E-2</v>
+      </c>
+      <c r="C17" s="18">
+        <v>-0.1091</v>
+      </c>
+      <c r="D17" s="18">
+        <v>-5.5199999999999999E-2</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0.15260000000000001</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0.20039999999999999</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0.29630000000000001</v>
+      </c>
+      <c r="I17" s="18">
+        <v>0.31830000000000003</v>
+      </c>
+      <c r="J17" s="18">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="K17" s="18">
+        <v>0.30869999999999997</v>
+      </c>
+      <c r="L17" s="18">
+        <v>0.22389999999999999</v>
+      </c>
+      <c r="M17" s="18">
+        <v>1</v>
+      </c>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A18" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="18">
+        <v>-6.2399999999999997E-2</v>
+      </c>
+      <c r="C18" s="18">
+        <v>-0.11509999999999999</v>
+      </c>
+      <c r="D18" s="18">
+        <v>-3.7199999999999997E-2</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0.2878</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0.14480000000000001</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0.21129999999999999</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0.36470000000000002</v>
+      </c>
+      <c r="I18" s="18">
+        <v>0.3967</v>
+      </c>
+      <c r="J18" s="18">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="K18" s="18">
+        <v>0.155</v>
+      </c>
+      <c r="L18" s="18">
+        <v>0.24640000000000001</v>
+      </c>
+      <c r="M18" s="18">
+        <v>0.34210000000000002</v>
+      </c>
+      <c r="N18" s="18">
+        <v>1</v>
+      </c>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A19" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="18">
+        <v>-0.13139999999999999</v>
+      </c>
+      <c r="C19" s="18">
+        <v>-0.22650000000000001</v>
+      </c>
+      <c r="D19" s="18">
+        <v>-0.14960000000000001</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0.26150000000000001</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0.30520000000000003</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0.51729999999999998</v>
+      </c>
+      <c r="I19" s="18">
+        <v>0.43730000000000002</v>
+      </c>
+      <c r="J19" s="18">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="K19" s="18">
+        <v>0.161</v>
+      </c>
+      <c r="L19" s="18">
+        <v>0.1009</v>
+      </c>
+      <c r="M19" s="18">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="N19" s="18">
+        <v>0.377</v>
+      </c>
+      <c r="O19" s="18">
+        <v>1</v>
+      </c>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A20" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="18">
+        <v>-5.2900000000000003E-2</v>
+      </c>
+      <c r="C20" s="18">
+        <v>-0.14449999999999999</v>
+      </c>
+      <c r="D20" s="18">
+        <v>-8.3400000000000002E-2</v>
+      </c>
+      <c r="E20" s="18">
+        <v>0.2676</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0.27789999999999998</v>
+      </c>
+      <c r="G20" s="18">
+        <v>0.34379999999999999</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0.43959999999999999</v>
+      </c>
+      <c r="I20" s="18">
+        <v>0.41420000000000001</v>
+      </c>
+      <c r="J20" s="18">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="K20" s="18">
+        <v>0.13109999999999999</v>
+      </c>
+      <c r="L20" s="18">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="M20" s="18">
+        <v>0.2853</v>
+      </c>
+      <c r="N20" s="18">
+        <v>0.3533</v>
+      </c>
+      <c r="O20" s="18">
+        <v>0.66120000000000001</v>
+      </c>
+      <c r="P20" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A21" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="18">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C21" s="18">
+        <v>-8.8099999999999998E-2</v>
+      </c>
+      <c r="D21" s="18">
+        <v>-5.8799999999999998E-2</v>
+      </c>
+      <c r="E21" s="18">
+        <v>0.1384</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0.1031</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0.13650000000000001</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0.16980000000000001</v>
+      </c>
+      <c r="I21" s="18">
+        <v>0.20979999999999999</v>
+      </c>
+      <c r="J21" s="18">
+        <v>0.15340000000000001</v>
+      </c>
+      <c r="K21" s="18">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="L21" s="18">
+        <v>7.7299999999999994E-2</v>
+      </c>
+      <c r="M21" s="18">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="N21" s="18">
+        <v>0.23119999999999999</v>
+      </c>
+      <c r="O21" s="18">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="P21" s="18">
+        <v>0.2475</v>
+      </c>
+      <c r="Q21" s="18">
+        <v>1</v>
+      </c>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A22" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="18">
+        <v>-1.04E-2</v>
+      </c>
+      <c r="C22" s="18">
+        <v>-0.15049999999999999</v>
+      </c>
+      <c r="D22" s="18">
+        <v>-0.1196</v>
+      </c>
+      <c r="E22" s="18">
+        <v>0.1226</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0.1129</v>
+      </c>
+      <c r="G22" s="18">
+        <v>0.15060000000000001</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="I22" s="18">
+        <v>0.26329999999999998</v>
+      </c>
+      <c r="J22" s="18">
+        <v>0.1782</v>
+      </c>
+      <c r="K22" s="18">
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="L22" s="18">
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="M22" s="18">
+        <v>0.1991</v>
+      </c>
+      <c r="N22" s="18">
+        <v>0.2641</v>
+      </c>
+      <c r="O22" s="18">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="P22" s="18">
+        <v>0.31590000000000001</v>
+      </c>
+      <c r="Q22" s="18">
+        <v>0.75149999999999995</v>
+      </c>
+      <c r="R22" s="18">
+        <v>1</v>
+      </c>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A23" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="18">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="C23" s="18">
+        <v>-0.11020000000000001</v>
+      </c>
+      <c r="D23" s="18">
+        <v>-8.5199999999999998E-2</v>
+      </c>
+      <c r="E23" s="18">
+        <v>7.0599999999999996E-2</v>
+      </c>
+      <c r="F23" s="18">
+        <v>0.1187</v>
+      </c>
+      <c r="G23" s="18">
+        <v>0.15359999999999999</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0.29730000000000001</v>
+      </c>
+      <c r="I23" s="18">
+        <v>0.24579999999999999</v>
+      </c>
+      <c r="J23" s="18">
+        <v>0.19950000000000001</v>
+      </c>
+      <c r="K23" s="18">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="L23" s="18">
+        <v>5.96E-2</v>
+      </c>
+      <c r="M23" s="18">
+        <v>0.16930000000000001</v>
+      </c>
+      <c r="N23" s="18">
+        <v>0.21110000000000001</v>
+      </c>
+      <c r="O23" s="18">
+        <v>0.37980000000000003</v>
+      </c>
+      <c r="P23" s="18">
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="Q23" s="18">
+        <v>0.52549999999999997</v>
+      </c>
+      <c r="R23" s="18">
+        <v>0.67530000000000001</v>
+      </c>
+      <c r="S23" s="18">
+        <v>1</v>
+      </c>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A24" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="18">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1.11E-2</v>
+      </c>
+      <c r="D24" s="18">
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="E24" s="18">
+        <v>0.25750000000000001</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0.35909999999999997</v>
+      </c>
+      <c r="G24" s="18">
+        <v>0.33860000000000001</v>
+      </c>
+      <c r="H24" s="18">
+        <v>0.42649999999999999</v>
+      </c>
+      <c r="I24" s="18">
+        <v>0.48089999999999999</v>
+      </c>
+      <c r="J24" s="18">
+        <v>0.51160000000000005</v>
+      </c>
+      <c r="K24" s="18">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="L24" s="18">
+        <v>0.15659999999999999</v>
+      </c>
+      <c r="M24" s="18">
+        <v>0.27360000000000001</v>
+      </c>
+      <c r="N24" s="18">
+        <v>0.44019999999999998</v>
+      </c>
+      <c r="O24" s="18">
+        <v>0.38229999999999997</v>
+      </c>
+      <c r="P24" s="18">
+        <v>0.35959999999999998</v>
+      </c>
+      <c r="Q24" s="18">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="R24" s="18">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="S24" s="18">
+        <v>0.2462</v>
+      </c>
+      <c r="T24" s="18">
+        <v>1</v>
+      </c>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A25" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="18">
+        <v>0.1085</v>
+      </c>
+      <c r="C25" s="18">
+        <v>-2.1700000000000001E-2</v>
+      </c>
+      <c r="D25" s="18">
+        <v>2.86E-2</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0.21529999999999999</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0.23769999999999999</v>
+      </c>
+      <c r="G25" s="18">
+        <v>0.2984</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0.2888</v>
+      </c>
+      <c r="I25" s="18">
+        <v>0.3851</v>
+      </c>
+      <c r="J25" s="18">
+        <v>0.33250000000000002</v>
+      </c>
+      <c r="K25" s="18">
+        <v>9.9400000000000002E-2</v>
+      </c>
+      <c r="L25" s="18">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="M25" s="18">
+        <v>0.29730000000000001</v>
+      </c>
+      <c r="N25" s="18">
+        <v>0.3957</v>
+      </c>
+      <c r="O25" s="18">
+        <v>0.33560000000000001</v>
+      </c>
+      <c r="P25" s="18">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="Q25" s="18">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="R25" s="18">
+        <v>0.30640000000000001</v>
+      </c>
+      <c r="S25" s="18">
+        <v>0.27229999999999999</v>
+      </c>
+      <c r="T25" s="18">
+        <v>0.35289999999999999</v>
+      </c>
+      <c r="U25" s="18">
+        <v>1</v>
+      </c>
+      <c r="V25" s="18"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A26" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="18">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="C26" s="18">
+        <v>-0.1246</v>
+      </c>
+      <c r="D26" s="18">
+        <v>-6.25E-2</v>
+      </c>
+      <c r="E26" s="18">
+        <v>0.2135</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0.24510000000000001</v>
+      </c>
+      <c r="G26" s="18">
+        <v>0.30840000000000001</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0.43159999999999998</v>
+      </c>
+      <c r="I26" s="18">
+        <v>0.45639999999999997</v>
+      </c>
+      <c r="J26" s="18">
+        <v>0.35649999999999998</v>
+      </c>
+      <c r="K26" s="18">
+        <v>0.15709999999999999</v>
+      </c>
+      <c r="L26" s="18">
+        <v>0.14729999999999999</v>
+      </c>
+      <c r="M26" s="18">
+        <v>0.31590000000000001</v>
+      </c>
+      <c r="N26" s="18">
+        <v>0.39829999999999999</v>
+      </c>
+      <c r="O26" s="18">
+        <v>0.50249999999999995</v>
+      </c>
+      <c r="P26" s="18">
+        <v>0.52749999999999997</v>
+      </c>
+      <c r="Q26" s="18">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="R26" s="18">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="S26" s="18">
+        <v>0.4093</v>
+      </c>
+      <c r="T26" s="18">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="U26" s="18">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="V26" s="18">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:V4"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:J4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B6:V26">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A63E760-C2E1-4C8F-8338-4A55E5F2D8F6}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4060,20 +7099,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
@@ -4103,7 +7142,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B4" s="9">
         <v>0.25355954851870199</v>
@@ -4190,10 +7229,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -4215,27 +7254,27 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B10" s="55">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G13" s="63" t="s">
+      <c r="G13" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
@@ -4265,7 +7304,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B15" s="9">
         <v>0.23048887991556499</v>
@@ -4352,10 +7391,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -4377,7 +7416,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B21" s="1">
         <v>62</v>
@@ -4387,20 +7426,20 @@
       <c r="E21" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G24" s="63" t="s">
+      <c r="G24" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
@@ -4430,7 +7469,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B26" s="9">
         <v>0.28653203408786099</v>
@@ -4517,10 +7556,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B30" s="69" t="s">
-        <v>163</v>
+        <v>140</v>
+      </c>
+      <c r="B30" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -4534,15 +7576,15 @@
         <v>28</v>
       </c>
       <c r="D31" s="56" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B32" s="1">
         <v>93</v>
@@ -4559,20 +7601,20 @@
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="64" t="s">
+      <c r="A34" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
     </row>
     <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G35" s="63" t="s">
+      <c r="G35" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
     </row>
     <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
@@ -4602,97 +7644,76 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="9">
-        <v>0.27409229552616299</v>
-      </c>
-      <c r="C37" s="9">
-        <v>0.376512905972681</v>
-      </c>
-      <c r="D37" s="9">
-        <v>0.79002107522393805</v>
-      </c>
-      <c r="E37" s="9">
-        <v>0.15027534446115601</v>
-      </c>
-      <c r="G37" s="18">
+        <v>93</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="G37" s="18" t="e">
         <f t="shared" ref="G37:G39" si="4">+C37/$B37</f>
-        <v>1.373671978812486</v>
-      </c>
-      <c r="H37" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="18" t="e">
         <f t="shared" ref="H37:H39" si="5">+D37/$B37</f>
-        <v>2.882317701442024</v>
-      </c>
-      <c r="I37" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="18" t="e">
         <f t="shared" ref="I37:I39" si="6">+E37/$B37</f>
-        <v>0.54826548178845746</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="9">
-        <v>0.27409229552616299</v>
-      </c>
-      <c r="C38" s="9">
-        <v>0.581256120450657</v>
-      </c>
-      <c r="D38" s="9">
-        <v>0.62356671376080797</v>
-      </c>
-      <c r="E38" s="9">
-        <v>7.8971052048355805E-2</v>
-      </c>
-      <c r="G38" s="18">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="G38" s="18" t="e">
         <f t="shared" si="4"/>
-        <v>2.1206583692359722</v>
-      </c>
-      <c r="H38" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="18" t="e">
         <f t="shared" si="5"/>
-        <v>2.2750245955063209</v>
-      </c>
-      <c r="I38" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="18" t="e">
         <f t="shared" si="6"/>
-        <v>0.28811846716361922</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="20">
-        <v>0.27409229552616299</v>
-      </c>
-      <c r="C39" s="20">
-        <v>0.51130203965422705</v>
-      </c>
-      <c r="D39" s="20">
-        <v>0.61685941254475496</v>
-      </c>
-      <c r="E39" s="20">
-        <v>0.13010063352593601</v>
-      </c>
-      <c r="G39" s="18">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="G39" s="18" t="e">
         <f t="shared" si="4"/>
-        <v>1.8654374748940057</v>
-      </c>
-      <c r="H39" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="18" t="e">
         <f t="shared" si="5"/>
-        <v>2.2505536369075858</v>
-      </c>
-      <c r="I39" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="18" t="e">
         <f t="shared" si="6"/>
-        <v>0.47465994356458474</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>162</v>
+        <v>142</v>
+      </c>
+      <c r="C41" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -4706,15 +7727,15 @@
         <v>28</v>
       </c>
       <c r="D42" s="56" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E42" s="56" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B43" s="1">
         <v>93</v>
@@ -4724,20 +7745,20 @@
       <c r="E43" s="1"/>
     </row>
     <row r="45" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="64" t="s">
+      <c r="A45" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
     </row>
     <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G46" s="63" t="s">
+      <c r="G46" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="63"/>
-      <c r="I46" s="63"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
     </row>
     <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="10" t="s">
@@ -4767,31 +7788,31 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B48" s="9">
-        <v>0.28183327657601598</v>
+        <v>0.27409229552616299</v>
       </c>
       <c r="C48" s="9">
-        <v>0.451604949468082</v>
+        <v>0.376512905972681</v>
       </c>
       <c r="D48" s="9">
-        <v>0.72629296980184699</v>
+        <v>0.79002107522393805</v>
       </c>
       <c r="E48" s="9">
-        <v>0.126547412046842</v>
+        <v>0.15027534446115601</v>
       </c>
       <c r="G48" s="18">
         <f t="shared" ref="G48:G50" si="7">+C48/$B48</f>
-        <v>1.6023833486045969</v>
+        <v>1.373671978812486</v>
       </c>
       <c r="H48" s="18">
         <f t="shared" ref="H48:H50" si="8">+D48/$B48</f>
-        <v>2.5770305714980095</v>
+        <v>2.882317701442024</v>
       </c>
       <c r="I48" s="18">
         <f t="shared" ref="I48:I50" si="9">+E48/$B48</f>
-        <v>0.44901515386778562</v>
+        <v>0.54826548178845746</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -4799,28 +7820,28 @@
         <v>9</v>
       </c>
       <c r="B49" s="9">
-        <v>0.28183327657601598</v>
+        <v>0.27409229552616299</v>
       </c>
       <c r="C49" s="9">
-        <v>0.57312702766578705</v>
+        <v>0.581256120450657</v>
       </c>
       <c r="D49" s="9">
-        <v>0.58547428345952901</v>
+        <v>0.62356671376080797</v>
       </c>
       <c r="E49" s="9">
-        <v>0.126990845337904</v>
+        <v>7.8971052048355805E-2</v>
       </c>
       <c r="G49" s="18">
         <f t="shared" si="7"/>
-        <v>2.033567627743218</v>
+        <v>2.1206583692359722</v>
       </c>
       <c r="H49" s="18">
         <f t="shared" si="8"/>
-        <v>2.0773781243025611</v>
+        <v>2.2750245955063209</v>
       </c>
       <c r="I49" s="18">
         <f t="shared" si="9"/>
-        <v>0.4505885425621558</v>
+        <v>0.28811846716361922</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4828,36 +7849,36 @@
         <v>10</v>
       </c>
       <c r="B50" s="20">
-        <v>0.28183327657601598</v>
+        <v>0.27409229552616299</v>
       </c>
       <c r="C50" s="20">
-        <v>0.73026257014047502</v>
+        <v>0.51130203965422705</v>
       </c>
       <c r="D50" s="20">
-        <v>0.395929548503758</v>
+        <v>0.61685941254475496</v>
       </c>
       <c r="E50" s="20">
-        <v>0.114035512352252</v>
+        <v>0.13010063352593601</v>
       </c>
       <c r="G50" s="18">
         <f t="shared" si="7"/>
-        <v>2.5911154957016187</v>
+        <v>1.8654374748940057</v>
       </c>
       <c r="H50" s="18">
         <f t="shared" si="8"/>
-        <v>1.4048360552518646</v>
+        <v>2.2505536369075858</v>
       </c>
       <c r="I50" s="18">
         <f t="shared" si="9"/>
-        <v>0.40462046830546772</v>
+        <v>0.47465994356458474</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B52" s="69" t="s">
-        <v>163</v>
+        <v>140</v>
+      </c>
+      <c r="B52" s="58" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -4871,15 +7892,15 @@
         <v>20</v>
       </c>
       <c r="D53" s="56" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E53" s="56" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B54" s="4">
         <v>93</v>
@@ -5052,1472 +8073,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621AD9AE-E34E-4A18-B651-4D2CF9D0D43B}">
-  <sheetPr>
-    <tabColor theme="7"/>
-  </sheetPr>
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="17.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G4" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0.29593120000000001</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.43839400000000001</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0.67276720000000001</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0.1945896</v>
-      </c>
-      <c r="G6" s="18">
-        <f>+C6/$B6</f>
-        <v>1.481405137410317</v>
-      </c>
-      <c r="H6" s="18">
-        <f t="shared" ref="H6:I8" si="0">+D6/$B6</f>
-        <v>2.2733905718626493</v>
-      </c>
-      <c r="I6" s="18">
-        <f t="shared" si="0"/>
-        <v>0.65755013327422052</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0.27454250000000002</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0.5662315</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0.65564169999999999</v>
-      </c>
-      <c r="E7" s="9">
-        <v>5.9034499999999997E-2</v>
-      </c>
-      <c r="G7" s="18">
-        <f t="shared" ref="G7:G8" si="1">+C7/$B7</f>
-        <v>2.0624548111858818</v>
-      </c>
-      <c r="H7" s="18">
-        <f t="shared" si="0"/>
-        <v>2.3881246073012372</v>
-      </c>
-      <c r="I7" s="18">
-        <f t="shared" si="0"/>
-        <v>0.21502863855322943</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="20">
-        <v>0.27069300000000002</v>
-      </c>
-      <c r="C8" s="20">
-        <v>0.62212940000000005</v>
-      </c>
-      <c r="D8" s="20">
-        <v>0.54990119999999998</v>
-      </c>
-      <c r="E8" s="20">
-        <v>7.5414999999999996E-2</v>
-      </c>
-      <c r="G8" s="18">
-        <f t="shared" si="1"/>
-        <v>2.2982840339425108</v>
-      </c>
-      <c r="H8" s="18">
-        <f t="shared" si="0"/>
-        <v>2.0314570380467907</v>
-      </c>
-      <c r="I8" s="18">
-        <f t="shared" si="0"/>
-        <v>0.27859974214331362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="G4:I4"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G6:G8">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H8">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I8">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C324394-3725-49AA-88D9-CE062D28E523}">
-  <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="A1:K32"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K1" s="50"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="35"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="40"/>
-      <c r="C4" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="35">
-        <v>0.01</v>
-      </c>
-      <c r="C5" s="9">
-        <v>-80.663570000000007</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="47">
-        <v>93</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="I5" s="5">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="35">
-        <v>0.05</v>
-      </c>
-      <c r="C6" s="9">
-        <v>-4.4692429999999996</v>
-      </c>
-      <c r="E6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="48">
-        <v>93</v>
-      </c>
-      <c r="H6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="35">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="9">
-        <v>-0.73104380000000002</v>
-      </c>
-      <c r="F7" s="28"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="35">
-        <v>0.25</v>
-      </c>
-      <c r="C8" s="9">
-        <v>-0.25560250000000001</v>
-      </c>
-      <c r="E8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="28">
-        <v>7.3860710000000003</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="I8" s="19">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C9" s="9"/>
-      <c r="E9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="28">
-        <v>82.432980000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B10" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="9">
-        <v>9.4639000000000008E-3</v>
-      </c>
-      <c r="F10" s="28"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C11" s="9"/>
-      <c r="E11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="28">
-        <v>6795.1970000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B12" s="35">
-        <v>0.75</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0.48917830000000001</v>
-      </c>
-      <c r="E12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="28">
-        <v>9.3188329999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="35">
-        <v>0.9</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0.91621580000000002</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="49">
-        <v>89.044470000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B14" s="35">
-        <v>0.95</v>
-      </c>
-      <c r="C14" s="9">
-        <v>1.69503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="45">
-        <v>0.99</v>
-      </c>
-      <c r="C15" s="46">
-        <v>789.47889999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="40"/>
-      <c r="C20" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="35">
-        <v>0.01</v>
-      </c>
-      <c r="C21" s="9">
-        <v>-80.663570000000007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="35">
-        <v>0.05</v>
-      </c>
-      <c r="C22" s="9">
-        <v>-4.4692429999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="35">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="9">
-        <v>-0.73104380000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="35">
-        <v>0.25</v>
-      </c>
-      <c r="C24" s="9">
-        <v>-0.25560250000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="C26" s="9">
-        <v>9.4639000000000008E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="35">
-        <v>0.75</v>
-      </c>
-      <c r="C28" s="9">
-        <v>0.48917830000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="35">
-        <v>0.9</v>
-      </c>
-      <c r="C29" s="9">
-        <v>0.91621580000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="35">
-        <v>0.95</v>
-      </c>
-      <c r="C30" s="9">
-        <v>1.69503</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="45">
-        <v>0.99</v>
-      </c>
-      <c r="C31" s="46">
-        <v>789.47889999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F3C55B-20D0-4D01-AB90-788A157F68F3}">
-  <dimension ref="A1:V25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B3" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M4" t="s">
-        <v>100</v>
-      </c>
-      <c r="N4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>102</v>
-      </c>
-      <c r="R4" t="s">
-        <v>68</v>
-      </c>
-      <c r="S4" t="s">
-        <v>103</v>
-      </c>
-      <c r="T4" t="s">
-        <v>104</v>
-      </c>
-      <c r="U4" t="s">
-        <v>71</v>
-      </c>
-      <c r="V4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A5" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A6" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6">
-        <v>0.52429999999999999</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7">
-        <v>0.50409999999999999</v>
-      </c>
-      <c r="C7">
-        <v>0.75739999999999996</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8">
-        <v>-0.13139999999999999</v>
-      </c>
-      <c r="C8">
-        <v>-0.22650000000000001</v>
-      </c>
-      <c r="D8">
-        <v>-0.14960000000000001</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9">
-        <v>-5.2900000000000003E-2</v>
-      </c>
-      <c r="C9">
-        <v>-0.14449999999999999</v>
-      </c>
-      <c r="D9">
-        <v>-8.3400000000000002E-2</v>
-      </c>
-      <c r="E9">
-        <v>0.66120000000000001</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10">
-        <v>2.4E-2</v>
-      </c>
-      <c r="C10">
-        <v>-8.8099999999999998E-2</v>
-      </c>
-      <c r="D10">
-        <v>-5.8799999999999998E-2</v>
-      </c>
-      <c r="E10">
-        <v>0.23580000000000001</v>
-      </c>
-      <c r="F10">
-        <v>0.2475</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A11" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11">
-        <v>-1.04E-2</v>
-      </c>
-      <c r="C11">
-        <v>-0.15049999999999999</v>
-      </c>
-      <c r="D11">
-        <v>-0.1196</v>
-      </c>
-      <c r="E11">
-        <v>0.32369999999999999</v>
-      </c>
-      <c r="F11">
-        <v>0.31590000000000001</v>
-      </c>
-      <c r="G11">
-        <v>0.75149999999999995</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A12" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12">
-        <v>5.8999999999999999E-3</v>
-      </c>
-      <c r="C12">
-        <v>-0.11020000000000001</v>
-      </c>
-      <c r="D12">
-        <v>-8.5199999999999998E-2</v>
-      </c>
-      <c r="E12">
-        <v>0.37980000000000003</v>
-      </c>
-      <c r="F12">
-        <v>0.34660000000000002</v>
-      </c>
-      <c r="G12">
-        <v>0.52549999999999997</v>
-      </c>
-      <c r="H12">
-        <v>0.67530000000000001</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A13" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="C13">
-        <v>1.11E-2</v>
-      </c>
-      <c r="D13">
-        <v>7.6100000000000001E-2</v>
-      </c>
-      <c r="E13">
-        <v>0.38229999999999997</v>
-      </c>
-      <c r="F13">
-        <v>0.35959999999999998</v>
-      </c>
-      <c r="G13">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="H13">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.2462</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A14" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14">
-        <v>0.1085</v>
-      </c>
-      <c r="C14">
-        <v>-2.1700000000000001E-2</v>
-      </c>
-      <c r="D14">
-        <v>2.86E-2</v>
-      </c>
-      <c r="E14">
-        <v>0.33560000000000001</v>
-      </c>
-      <c r="F14">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="G14">
-        <v>0.27029999999999998</v>
-      </c>
-      <c r="H14">
-        <v>0.30640000000000001</v>
-      </c>
-      <c r="I14">
-        <v>0.27229999999999999</v>
-      </c>
-      <c r="J14">
-        <v>0.35289999999999999</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A15" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15">
-        <v>1.2699999999999999E-2</v>
-      </c>
-      <c r="C15">
-        <v>-0.1246</v>
-      </c>
-      <c r="D15">
-        <v>-6.25E-2</v>
-      </c>
-      <c r="E15">
-        <v>0.50249999999999995</v>
-      </c>
-      <c r="F15">
-        <v>0.52749999999999997</v>
-      </c>
-      <c r="G15">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="H15">
-        <v>0.35730000000000001</v>
-      </c>
-      <c r="I15">
-        <v>0.4093</v>
-      </c>
-      <c r="J15">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="K15">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A16" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16">
-        <v>-0.1754</v>
-      </c>
-      <c r="C16">
-        <v>-0.1913</v>
-      </c>
-      <c r="D16">
-        <v>-0.1711</v>
-      </c>
-      <c r="E16">
-        <v>0.161</v>
-      </c>
-      <c r="F16">
-        <v>0.13109999999999999</v>
-      </c>
-      <c r="G16">
-        <v>1.7399999999999999E-2</v>
-      </c>
-      <c r="H16">
-        <v>7.6200000000000004E-2</v>
-      </c>
-      <c r="I16">
-        <v>8.4099999999999994E-2</v>
-      </c>
-      <c r="J16">
-        <v>9.5799999999999996E-2</v>
-      </c>
-      <c r="K16">
-        <v>9.9400000000000002E-2</v>
-      </c>
-      <c r="L16">
-        <v>0.15709999999999999</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A17" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17">
-        <v>6.3E-2</v>
-      </c>
-      <c r="C17">
-        <v>3.8699999999999998E-2</v>
-      </c>
-      <c r="D17">
-        <v>4.3900000000000002E-2</v>
-      </c>
-      <c r="E17">
-        <v>0.1009</v>
-      </c>
-      <c r="F17">
-        <v>9.8599999999999993E-2</v>
-      </c>
-      <c r="G17">
-        <v>7.7299999999999994E-2</v>
-      </c>
-      <c r="H17">
-        <v>7.6200000000000004E-2</v>
-      </c>
-      <c r="I17">
-        <v>5.96E-2</v>
-      </c>
-      <c r="J17">
-        <v>0.15659999999999999</v>
-      </c>
-      <c r="K17">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="L17">
-        <v>0.14729999999999999</v>
-      </c>
-      <c r="M17">
-        <v>4.5699999999999998E-2</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A18" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18">
-        <v>-3.5099999999999999E-2</v>
-      </c>
-      <c r="C18">
-        <v>-0.1091</v>
-      </c>
-      <c r="D18">
-        <v>-5.5199999999999999E-2</v>
-      </c>
-      <c r="E18">
-        <v>0.29409999999999997</v>
-      </c>
-      <c r="F18">
-        <v>0.2853</v>
-      </c>
-      <c r="G18">
-        <v>0.16639999999999999</v>
-      </c>
-      <c r="H18">
-        <v>0.1991</v>
-      </c>
-      <c r="I18">
-        <v>0.16930000000000001</v>
-      </c>
-      <c r="J18">
-        <v>0.27360000000000001</v>
-      </c>
-      <c r="K18">
-        <v>0.29730000000000001</v>
-      </c>
-      <c r="L18">
-        <v>0.31590000000000001</v>
-      </c>
-      <c r="M18">
-        <v>0.30869999999999997</v>
-      </c>
-      <c r="N18">
-        <v>0.22389999999999999</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A19" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19">
-        <v>-6.2399999999999997E-2</v>
-      </c>
-      <c r="C19">
-        <v>-0.11509999999999999</v>
-      </c>
-      <c r="D19">
-        <v>-3.7199999999999997E-2</v>
-      </c>
-      <c r="E19">
-        <v>0.377</v>
-      </c>
-      <c r="F19">
-        <v>0.3533</v>
-      </c>
-      <c r="G19">
-        <v>0.23119999999999999</v>
-      </c>
-      <c r="H19">
-        <v>0.2641</v>
-      </c>
-      <c r="I19">
-        <v>0.21110000000000001</v>
-      </c>
-      <c r="J19">
-        <v>0.44019999999999998</v>
-      </c>
-      <c r="K19">
-        <v>0.3957</v>
-      </c>
-      <c r="L19">
-        <v>0.39829999999999999</v>
-      </c>
-      <c r="M19">
-        <v>0.155</v>
-      </c>
-      <c r="N19">
-        <v>0.24640000000000001</v>
-      </c>
-      <c r="O19">
-        <v>0.34210000000000002</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A20" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20">
-        <v>-0.10829999999999999</v>
-      </c>
-      <c r="C20">
-        <v>-9.69E-2</v>
-      </c>
-      <c r="D20">
-        <v>-2.7699999999999999E-2</v>
-      </c>
-      <c r="E20">
-        <v>0.26150000000000001</v>
-      </c>
-      <c r="F20">
-        <v>0.2676</v>
-      </c>
-      <c r="G20">
-        <v>0.1384</v>
-      </c>
-      <c r="H20">
-        <v>0.1226</v>
-      </c>
-      <c r="I20">
-        <v>7.0599999999999996E-2</v>
-      </c>
-      <c r="J20">
-        <v>0.25750000000000001</v>
-      </c>
-      <c r="K20">
-        <v>0.21529999999999999</v>
-      </c>
-      <c r="L20">
-        <v>0.2135</v>
-      </c>
-      <c r="M20">
-        <v>8.8499999999999995E-2</v>
-      </c>
-      <c r="N20">
-        <v>0.13289999999999999</v>
-      </c>
-      <c r="O20">
-        <v>0.27060000000000001</v>
-      </c>
-      <c r="P20">
-        <v>0.2878</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A21" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21">
-        <v>-8.0999999999999996E-3</v>
-      </c>
-      <c r="C21">
-        <v>-8.8999999999999999E-3</v>
-      </c>
-      <c r="D21">
-        <v>3.1399999999999997E-2</v>
-      </c>
-      <c r="E21">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="F21">
-        <v>0.27789999999999998</v>
-      </c>
-      <c r="G21">
-        <v>0.1031</v>
-      </c>
-      <c r="H21">
-        <v>0.1129</v>
-      </c>
-      <c r="I21">
-        <v>0.1187</v>
-      </c>
-      <c r="J21">
-        <v>0.35909999999999997</v>
-      </c>
-      <c r="K21">
-        <v>0.23769999999999999</v>
-      </c>
-      <c r="L21">
-        <v>0.24510000000000001</v>
-      </c>
-      <c r="M21">
-        <v>-1.03E-2</v>
-      </c>
-      <c r="N21">
-        <v>-5.5999999999999999E-3</v>
-      </c>
-      <c r="O21">
-        <v>0.15260000000000001</v>
-      </c>
-      <c r="P21">
-        <v>0.14480000000000001</v>
-      </c>
-      <c r="Q21">
-        <v>0.2596</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A22" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22">
-        <v>-1.83E-2</v>
-      </c>
-      <c r="C22">
-        <v>-5.3600000000000002E-2</v>
-      </c>
-      <c r="D22">
-        <v>-4.8999999999999998E-3</v>
-      </c>
-      <c r="E22">
-        <v>0.30520000000000003</v>
-      </c>
-      <c r="F22">
-        <v>0.34379999999999999</v>
-      </c>
-      <c r="G22">
-        <v>0.13650000000000001</v>
-      </c>
-      <c r="H22">
-        <v>0.15060000000000001</v>
-      </c>
-      <c r="I22">
-        <v>0.15359999999999999</v>
-      </c>
-      <c r="J22">
-        <v>0.33860000000000001</v>
-      </c>
-      <c r="K22">
-        <v>0.2984</v>
-      </c>
-      <c r="L22">
-        <v>0.30840000000000001</v>
-      </c>
-      <c r="M22">
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="N22">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="O22">
-        <v>0.20039999999999999</v>
-      </c>
-      <c r="P22">
-        <v>0.21129999999999999</v>
-      </c>
-      <c r="Q22">
-        <v>0.29580000000000001</v>
-      </c>
-      <c r="R22">
-        <v>0.64780000000000004</v>
-      </c>
-      <c r="S22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A23" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23">
-        <v>-0.16220000000000001</v>
-      </c>
-      <c r="C23">
-        <v>-0.20030000000000001</v>
-      </c>
-      <c r="D23">
-        <v>-0.1011</v>
-      </c>
-      <c r="E23">
-        <v>0.51729999999999998</v>
-      </c>
-      <c r="F23">
-        <v>0.43959999999999999</v>
-      </c>
-      <c r="G23">
-        <v>0.16980000000000001</v>
-      </c>
-      <c r="H23">
-        <v>0.25819999999999999</v>
-      </c>
-      <c r="I23">
-        <v>0.29730000000000001</v>
-      </c>
-      <c r="J23">
-        <v>0.42649999999999999</v>
-      </c>
-      <c r="K23">
-        <v>0.2888</v>
-      </c>
-      <c r="L23">
-        <v>0.43159999999999998</v>
-      </c>
-      <c r="M23">
-        <v>0.21290000000000001</v>
-      </c>
-      <c r="N23">
-        <v>8.1600000000000006E-2</v>
-      </c>
-      <c r="O23">
-        <v>0.29630000000000001</v>
-      </c>
-      <c r="P23">
-        <v>0.36470000000000002</v>
-      </c>
-      <c r="Q23">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="R23">
-        <v>0.2651</v>
-      </c>
-      <c r="S23">
-        <v>0.27389999999999998</v>
-      </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A24" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24">
-        <v>-0.12180000000000001</v>
-      </c>
-      <c r="C24">
-        <v>-0.14349999999999999</v>
-      </c>
-      <c r="D24">
-        <v>-4.7600000000000003E-2</v>
-      </c>
-      <c r="E24">
-        <v>0.43730000000000002</v>
-      </c>
-      <c r="F24">
-        <v>0.41420000000000001</v>
-      </c>
-      <c r="G24">
-        <v>0.20979999999999999</v>
-      </c>
-      <c r="H24">
-        <v>0.26329999999999998</v>
-      </c>
-      <c r="I24">
-        <v>0.24579999999999999</v>
-      </c>
-      <c r="J24">
-        <v>0.48089999999999999</v>
-      </c>
-      <c r="K24">
-        <v>0.3851</v>
-      </c>
-      <c r="L24">
-        <v>0.45639999999999997</v>
-      </c>
-      <c r="M24">
-        <v>0.1653</v>
-      </c>
-      <c r="N24">
-        <v>0.1512</v>
-      </c>
-      <c r="O24">
-        <v>0.31830000000000003</v>
-      </c>
-      <c r="P24">
-        <v>0.3967</v>
-      </c>
-      <c r="Q24">
-        <v>0.37580000000000002</v>
-      </c>
-      <c r="R24">
-        <v>0.31369999999999998</v>
-      </c>
-      <c r="S24">
-        <v>0.33760000000000001</v>
-      </c>
-      <c r="T24">
-        <v>0.59350000000000003</v>
-      </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A25" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25">
-        <v>2.93E-2</v>
-      </c>
-      <c r="C25">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="D25">
-        <v>7.3400000000000007E-2</v>
-      </c>
-      <c r="E25">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="F25">
-        <v>0.36280000000000001</v>
-      </c>
-      <c r="G25">
-        <v>0.15340000000000001</v>
-      </c>
-      <c r="H25">
-        <v>0.1782</v>
-      </c>
-      <c r="I25">
-        <v>0.19950000000000001</v>
-      </c>
-      <c r="J25">
-        <v>0.51160000000000005</v>
-      </c>
-      <c r="K25">
-        <v>0.33250000000000002</v>
-      </c>
-      <c r="L25">
-        <v>0.35649999999999998</v>
-      </c>
-      <c r="M25">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="N25">
-        <v>8.6800000000000002E-2</v>
-      </c>
-      <c r="O25">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="P25">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="Q25">
-        <v>0.31819999999999998</v>
-      </c>
-      <c r="R25">
-        <v>0.42980000000000002</v>
-      </c>
-      <c r="S25">
-        <v>0.40849999999999997</v>
-      </c>
-      <c r="T25">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="U25">
-        <v>0.47870000000000001</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:V3"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B5:V25">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/results/tables/final_tables_6_22.xlsx
+++ b/results/tables/final_tables_6_22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thecs\Dropbox (Boston University)\1_boston_university\8-Research Assistantship\ukData\results\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88C6A94-D887-40DF-9983-E54350B19BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975FC861-3544-4AD0-82DE-06FA4F4F4918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="-12660" windowWidth="16410" windowHeight="12660" firstSheet="7" activeTab="8" xr2:uid="{E382401A-5014-4F77-A3DB-04E9551C20F1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="8" xr2:uid="{E382401A-5014-4F77-A3DB-04E9551C20F1}"/>
   </bookViews>
   <sheets>
     <sheet name="occupation_numbers" sheetId="11" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="222">
   <si>
     <t>Occupation fixed-effects</t>
   </si>
@@ -1060,7 +1060,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1172,6 +1172,31 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1187,54 +1212,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1862,20 +1856,20 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
@@ -2367,7 +2361,7 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A2:E19"/>
+  <dimension ref="A2:D19"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -2381,31 +2375,30 @@
     <col min="4" max="4" width="52.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="79" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="64" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="79" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="80"/>
-    </row>
-    <row r="4" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="59" t="s">
+      <c r="B3" s="64"/>
+    </row>
+    <row r="4" spans="1:4" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="76"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
@@ -2419,7 +2412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
@@ -2433,7 +2426,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>217</v>
       </c>
@@ -2447,7 +2440,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>180</v>
       </c>
@@ -2461,7 +2454,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>33</v>
       </c>
@@ -2475,7 +2468,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>197</v>
       </c>
@@ -2489,7 +2482,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>34</v>
       </c>
@@ -2503,7 +2496,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>39</v>
       </c>
@@ -2517,7 +2510,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>166</v>
       </c>
@@ -2531,7 +2524,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>35</v>
       </c>
@@ -2545,7 +2538,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>218</v>
       </c>
@@ -2615,51 +2608,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="H1" s="77" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="H1" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="N1" s="77" t="s">
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="N1" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="H2" s="74" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="H2" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="74" t="s">
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="N2" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
     </row>
     <row r="3" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4"/>
@@ -2688,16 +2680,16 @@
       <c r="L3" s="4">
         <v>2017</v>
       </c>
-      <c r="O3" s="73">
+      <c r="O3" s="61">
         <v>2001</v>
       </c>
-      <c r="P3" s="73">
+      <c r="P3" s="61">
         <v>2006</v>
       </c>
       <c r="Q3" s="4">
         <v>2012</v>
       </c>
-      <c r="R3" s="73">
+      <c r="R3" s="61">
         <v>2017</v>
       </c>
     </row>
@@ -2844,7 +2836,7 @@
       <c r="R6" s="30">
         <v>7088689</v>
       </c>
-      <c r="U6" s="78"/>
+      <c r="U6" s="62"/>
     </row>
     <row r="7" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
@@ -2949,59 +2941,59 @@
       <c r="B10" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="72">
+      <c r="C10" s="60">
         <f>+C4/C$7</f>
         <v>0.45714984615740595</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="60">
         <f t="shared" ref="D10:F10" si="3">+D4/D$7</f>
         <v>0.41709555692655492</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="60">
         <f t="shared" si="3"/>
         <v>0.34020945227600013</v>
       </c>
-      <c r="F10" s="72">
+      <c r="F10" s="60">
         <f t="shared" si="3"/>
         <v>0.30283992492425504</v>
       </c>
       <c r="H10" t="s">
         <v>93</v>
       </c>
-      <c r="I10" s="72">
-        <f>+I4/I$7</f>
+      <c r="I10" s="60">
+        <f t="shared" ref="I10:L13" si="4">+I4/I$7</f>
         <v>0.4711448608360938</v>
       </c>
-      <c r="J10" s="72">
-        <f>+J4/J$7</f>
+      <c r="J10" s="60">
+        <f t="shared" si="4"/>
         <v>0.43293416841828847</v>
       </c>
-      <c r="K10" s="72">
-        <f>+K4/K$7</f>
+      <c r="K10" s="60">
+        <f t="shared" si="4"/>
         <v>0.34955936030966289</v>
       </c>
-      <c r="L10" s="72">
-        <f>+L4/L$7</f>
+      <c r="L10" s="60">
+        <f t="shared" si="4"/>
         <v>0.31351916949490627</v>
       </c>
-      <c r="M10" s="72"/>
+      <c r="M10" s="60"/>
       <c r="N10" t="s">
         <v>93</v>
       </c>
-      <c r="O10" s="72">
+      <c r="O10" s="60">
         <f>+O4/O$7</f>
         <v>0.48978827880706949</v>
       </c>
-      <c r="P10" s="72">
-        <f t="shared" ref="P10:R10" si="4">+P4/P$7</f>
+      <c r="P10" s="60">
+        <f t="shared" ref="P10:R10" si="5">+P4/P$7</f>
         <v>0.45247370296325407</v>
       </c>
-      <c r="Q10" s="72">
-        <f t="shared" si="4"/>
+      <c r="Q10" s="60">
+        <f t="shared" si="5"/>
         <v>0.36498720813961988</v>
       </c>
-      <c r="R10" s="72">
-        <f t="shared" si="4"/>
+      <c r="R10" s="60">
+        <f t="shared" si="5"/>
         <v>0.32667469189840564</v>
       </c>
     </row>
@@ -3009,59 +3001,59 @@
       <c r="B11" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="72">
-        <f t="shared" ref="C11:F11" si="5">+C5/C$7</f>
+      <c r="C11" s="60">
+        <f t="shared" ref="C11:F11" si="6">+C5/C$7</f>
         <v>0.23196623561416246</v>
       </c>
-      <c r="D11" s="72">
-        <f t="shared" si="5"/>
+      <c r="D11" s="60">
+        <f t="shared" si="6"/>
         <v>0.22465000720331807</v>
       </c>
-      <c r="E11" s="72">
-        <f t="shared" si="5"/>
+      <c r="E11" s="60">
+        <f t="shared" si="6"/>
         <v>0.2208193959779306</v>
       </c>
-      <c r="F11" s="72">
-        <f t="shared" si="5"/>
+      <c r="F11" s="60">
+        <f t="shared" si="6"/>
         <v>0.2201646387778057</v>
       </c>
       <c r="H11" t="s">
         <v>211</v>
       </c>
-      <c r="I11" s="72">
-        <f>+I5/I$7</f>
+      <c r="I11" s="60">
+        <f t="shared" si="4"/>
         <v>0.24976687212837287</v>
       </c>
-      <c r="J11" s="72">
-        <f>+J5/J$7</f>
+      <c r="J11" s="60">
+        <f t="shared" si="4"/>
         <v>0.24347895838928746</v>
       </c>
-      <c r="K11" s="72">
-        <f>+K5/K$7</f>
+      <c r="K11" s="60">
+        <f t="shared" si="4"/>
         <v>0.23955194574798333</v>
       </c>
-      <c r="L11" s="72">
-        <f>+L5/L$7</f>
+      <c r="L11" s="60">
+        <f t="shared" si="4"/>
         <v>0.24000992639179192</v>
       </c>
-      <c r="M11" s="72"/>
+      <c r="M11" s="60"/>
       <c r="N11" t="s">
         <v>211</v>
       </c>
-      <c r="O11" s="72">
-        <f t="shared" ref="O11:R13" si="6">+O5/O$7</f>
+      <c r="O11" s="60">
+        <f t="shared" ref="O11:R13" si="7">+O5/O$7</f>
         <v>0.27152068520708916</v>
       </c>
-      <c r="P11" s="72">
-        <f t="shared" si="6"/>
+      <c r="P11" s="60">
+        <f t="shared" si="7"/>
         <v>0.26756261071145815</v>
       </c>
-      <c r="Q11" s="72">
-        <f t="shared" si="6"/>
+      <c r="Q11" s="60">
+        <f t="shared" si="7"/>
         <v>0.26720187616885743</v>
       </c>
-      <c r="R11" s="72">
-        <f t="shared" si="6"/>
+      <c r="R11" s="60">
+        <f t="shared" si="7"/>
         <v>0.26624316934555964</v>
       </c>
     </row>
@@ -3069,59 +3061,59 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="72">
-        <f t="shared" ref="C12:F12" si="7">+C6/C$7</f>
+      <c r="C12" s="60">
+        <f t="shared" ref="C12:F12" si="8">+C6/C$7</f>
         <v>0.31088391822843159</v>
       </c>
-      <c r="D12" s="72">
-        <f t="shared" si="7"/>
+      <c r="D12" s="60">
+        <f t="shared" si="8"/>
         <v>0.35825443587012701</v>
       </c>
-      <c r="E12" s="72">
-        <f t="shared" si="7"/>
+      <c r="E12" s="60">
+        <f t="shared" si="8"/>
         <v>0.43897115174606927</v>
       </c>
-      <c r="F12" s="72">
-        <f t="shared" si="7"/>
+      <c r="F12" s="60">
+        <f t="shared" si="8"/>
         <v>0.47699543629793922</v>
       </c>
       <c r="H12" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="72">
-        <f>+I6/I$7</f>
+      <c r="I12" s="60">
+        <f t="shared" si="4"/>
         <v>0.2790882670355333</v>
       </c>
-      <c r="J12" s="72">
-        <f>+J6/J$7</f>
+      <c r="J12" s="60">
+        <f t="shared" si="4"/>
         <v>0.32358687319242407</v>
       </c>
-      <c r="K12" s="72">
-        <f>+K6/K$7</f>
+      <c r="K12" s="60">
+        <f t="shared" si="4"/>
         <v>0.41088869394235378</v>
       </c>
-      <c r="L12" s="72">
-        <f>+L6/L$7</f>
+      <c r="L12" s="60">
+        <f t="shared" si="4"/>
         <v>0.44647090411330181</v>
       </c>
-      <c r="M12" s="72"/>
+      <c r="M12" s="60"/>
       <c r="N12" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="72">
-        <f t="shared" si="6"/>
+      <c r="O12" s="60">
+        <f t="shared" si="7"/>
         <v>0.23869103598584135</v>
       </c>
-      <c r="P12" s="72">
-        <f t="shared" si="6"/>
+      <c r="P12" s="60">
+        <f t="shared" si="7"/>
         <v>0.27996368632528773</v>
       </c>
-      <c r="Q12" s="72">
-        <f t="shared" si="6"/>
+      <c r="Q12" s="60">
+        <f t="shared" si="7"/>
         <v>0.36781091569152263</v>
       </c>
-      <c r="R12" s="72">
-        <f t="shared" si="6"/>
+      <c r="R12" s="60">
+        <f t="shared" si="7"/>
         <v>0.40708213875603472</v>
       </c>
     </row>
@@ -3129,59 +3121,59 @@
       <c r="B13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="72">
-        <f t="shared" ref="C13:F13" si="8">+C7/C$7</f>
+      <c r="C13" s="60">
+        <f t="shared" ref="C13:F13" si="9">+C7/C$7</f>
         <v>1</v>
       </c>
-      <c r="D13" s="72">
-        <f t="shared" si="8"/>
+      <c r="D13" s="60">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E13" s="72">
-        <f t="shared" si="8"/>
+      <c r="E13" s="60">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="F13" s="72">
-        <f t="shared" si="8"/>
+      <c r="F13" s="60">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H13" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="72">
-        <f>+I7/I$7</f>
+      <c r="I13" s="60">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J13" s="72">
-        <f>+J7/J$7</f>
+      <c r="J13" s="60">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K13" s="72">
-        <f>+K7/K$7</f>
+      <c r="K13" s="60">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L13" s="72">
-        <f>+L7/L$7</f>
+      <c r="L13" s="60">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M13" s="72"/>
+      <c r="M13" s="60"/>
       <c r="N13" t="s">
         <v>71</v>
       </c>
-      <c r="O13" s="72">
-        <f t="shared" si="6"/>
+      <c r="O13" s="60">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="P13" s="72">
-        <f t="shared" si="6"/>
+      <c r="P13" s="60">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q13" s="72">
-        <f t="shared" si="6"/>
+      <c r="Q13" s="60">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="R13" s="72">
-        <f t="shared" si="6"/>
+      <c r="R13" s="60">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -3222,16 +3214,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="69"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="71" t="s">
+      <c r="B3" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="59" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3524,10 +3516,10 @@
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B40" s="71" t="s">
+      <c r="B40" t="s">
         <v>180</v>
       </c>
-      <c r="C40" s="71" t="s">
+      <c r="C40" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3596,10 +3588,10 @@
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B49" s="71" t="s">
+      <c r="B49" t="s">
         <v>188</v>
       </c>
-      <c r="C49" s="71" t="s">
+      <c r="C49" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3760,13 +3752,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
       <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3880,12 +3872,12 @@
       <c r="E8" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="13"/>
@@ -4184,12 +4176,12 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="13"/>
@@ -4515,21 +4507,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="63" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
@@ -4767,13 +4759,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="51"/>
@@ -4783,10 +4775,10 @@
       <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="63" t="s">
         <v>143</v>
       </c>
       <c r="C23" s="51"/>
@@ -4801,13 +4793,13 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="1:5" ht="33.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
@@ -5069,13 +5061,13 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
     </row>
     <row r="45" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
@@ -5111,10 +5103,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="64" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5429,10 +5421,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="64" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5443,36 +5435,36 @@
       <c r="AB2"/>
     </row>
     <row r="3" spans="1:29" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="74"/>
       <c r="AC3" s="32"/>
     </row>
     <row r="4" spans="1:29" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5897,19 +5889,19 @@
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="80">
+      <c r="B14" s="64">
         <v>156</v>
       </c>
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="80">
+      <c r="B15" s="64">
         <v>16720</v>
       </c>
       <c r="T15" s="4"/>
@@ -5936,55 +5928,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="65" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="82">
+      <c r="B2" s="65">
         <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="68" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="67" t="s">
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="81" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="81"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B5" s="36" t="s">
@@ -7086,10 +7078,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:E45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7099,20 +7091,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
@@ -7261,20 +7253,20 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G13" s="64" t="s">
+      <c r="G13" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
@@ -7360,7 +7352,7 @@
         <v>8.2404717945099751E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="19" t="s">
         <v>10</v>
       </c>
@@ -7389,7 +7381,7 @@
         <v>8.992433008205325E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>140</v>
       </c>
@@ -7397,7 +7389,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -7414,7 +7406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>118</v>
       </c>
@@ -7425,23 +7417,23 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="65" t="s">
+    <row r="23" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-    </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G24" s="64" t="s">
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+    </row>
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G24" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-    </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+    </row>
+    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
         <v>8</v>
       </c>
@@ -7466,106 +7458,139 @@
       <c r="I25" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L25">
+        <v>0.28989378675668298</v>
+      </c>
+      <c r="M25">
+        <v>0.31427353528921897</v>
+      </c>
+      <c r="N25">
+        <v>0.78279708146500204</v>
+      </c>
+      <c r="O25">
+        <v>0.24817665064047001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>93</v>
       </c>
       <c r="B26" s="9">
-        <v>0.28653203408786099</v>
+        <v>0.28989378675668298</v>
       </c>
       <c r="C26" s="9">
-        <v>0.432813593737364</v>
+        <v>0.31427353528921897</v>
       </c>
       <c r="D26" s="9">
-        <v>0.72863646579924202</v>
+        <v>0.78279708146500204</v>
       </c>
       <c r="E26" s="9">
-        <v>0.13590170492659701</v>
+        <v>0.24817665064047001</v>
       </c>
       <c r="G26" s="18">
         <f t="shared" ref="G26:I28" si="3">+C26/$B26</f>
-        <v>1.5105242773820111</v>
+        <v>1.0840988998256753</v>
       </c>
       <c r="H26" s="18">
         <f t="shared" si="3"/>
-        <v>2.5429494057052482</v>
+        <v>2.7002892687797702</v>
       </c>
       <c r="I26" s="18">
         <f t="shared" si="3"/>
-        <v>0.47429846843904605</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.85609510095769148</v>
+      </c>
+      <c r="L26">
+        <v>0.218265282529087</v>
+      </c>
+      <c r="M26">
+        <v>0.494405218087976</v>
+      </c>
+      <c r="N26">
+        <v>0.78588256241046905</v>
+      </c>
+      <c r="O26">
+        <v>3.5119315719301103E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="9">
-        <v>0.276932075864669</v>
+        <v>0.218265282529087</v>
       </c>
       <c r="C27" s="9">
-        <v>0.57770093297611302</v>
+        <v>0.494405218087976</v>
       </c>
       <c r="D27" s="9">
-        <v>0.59045981810458203</v>
+        <v>0.78588256241046905</v>
       </c>
       <c r="E27" s="9">
-        <v>0.11649908855437099</v>
+        <v>3.5119315719301103E-2</v>
       </c>
       <c r="G27" s="18">
         <f t="shared" si="3"/>
-        <v>2.0860744685221064</v>
+        <v>2.2651573917720484</v>
       </c>
       <c r="H27" s="18">
         <f t="shared" si="3"/>
-        <v>2.1321467232027236</v>
+        <v>3.6005843591077697</v>
       </c>
       <c r="I27" s="18">
         <f t="shared" si="3"/>
-        <v>0.42067748270265992</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0.16090197814497112</v>
+      </c>
+      <c r="L27">
+        <v>0.24165677019192</v>
+      </c>
+      <c r="M27">
+        <v>1.0090544996103099</v>
+      </c>
+      <c r="N27">
+        <v>0.15247236045851001</v>
+      </c>
+      <c r="O27">
+        <v>9.3186362566577502E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="20">
-        <v>0.26284326769114302</v>
+        <v>0.24165677019192</v>
       </c>
       <c r="C28" s="20">
-        <v>0.69281313851899595</v>
+        <v>1.0090544996103099</v>
       </c>
       <c r="D28" s="20">
-        <v>0.46538756699114298</v>
+        <v>0.15247236045851001</v>
       </c>
       <c r="E28" s="20">
-        <v>8.4193690103555402E-2</v>
+        <v>9.3186362566577502E-2</v>
       </c>
       <c r="G28" s="18">
         <f t="shared" si="3"/>
-        <v>2.635841292815968</v>
+        <v>4.1755689228525847</v>
       </c>
       <c r="H28" s="18">
         <f t="shared" si="3"/>
-        <v>1.7705896410403859</v>
+        <v>0.63094595006553655</v>
       </c>
       <c r="I28" s="18">
         <f t="shared" si="3"/>
-        <v>0.32031899026034083</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.38561453292854309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B30" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="C30" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -7582,7 +7607,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>118</v>
       </c>
@@ -7601,20 +7626,20 @@
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
     </row>
     <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G35" s="64" t="s">
+      <c r="G35" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
     </row>
     <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
@@ -7745,20 +7770,20 @@
       <c r="E43" s="1"/>
     </row>
     <row r="45" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="80"/>
     </row>
     <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G46" s="64" t="s">
+      <c r="G46" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="64"/>
-      <c r="I46" s="64"/>
+      <c r="H46" s="79"/>
+      <c r="I46" s="79"/>
     </row>
     <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="10" t="s">

--- a/results/tables/final_tables_6_22.xlsx
+++ b/results/tables/final_tables_6_22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thecs\Dropbox (Boston University)\1_boston_university\8-Research Assistantship\ukData\results\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975FC861-3544-4AD0-82DE-06FA4F4F4918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8E5A75-70EC-492F-8289-58B0E03BA7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="8" xr2:uid="{E382401A-5014-4F77-A3DB-04E9551C20F1}"/>
+    <workbookView xWindow="28695" yWindow="-25230" windowWidth="16410" windowHeight="12675" firstSheet="8" activeTab="10" xr2:uid="{E382401A-5014-4F77-A3DB-04E9551C20F1}"/>
   </bookViews>
   <sheets>
     <sheet name="occupation_numbers" sheetId="11" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="221">
   <si>
     <t>Occupation fixed-effects</t>
   </si>
@@ -801,9 +801,6 @@
   <si>
     <t>9211 post wrkr, mail sort, msngr, courir</t>
   </si>
-  <si>
-    <t>(running currently)</t>
-  </si>
 </sst>
 </file>
 
@@ -814,7 +811,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000_);\(0.0000\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -882,16 +879,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -931,12 +920,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,7 +1136,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1165,13 +1147,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1180,18 +1159,21 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1230,6 +1212,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1856,20 +1839,20 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G4" s="79" t="s">
+      <c r="G4" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
@@ -2047,10 +2030,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2063,16 +2046,16 @@
     <col min="8" max="8" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K1" s="50"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="80"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -2089,165 +2072,169 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="35"/>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="40"/>
       <c r="C4" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5" s="35">
         <v>0.01</v>
       </c>
       <c r="C5" s="9">
-        <v>-80.663570000000007</v>
+        <v>-8.4231500000000001E-2</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>64</v>
       </c>
       <c r="F5" s="47">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>129</v>
       </c>
       <c r="I5" s="5">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" s="35">
         <v>0.05</v>
       </c>
       <c r="C6" s="9">
-        <v>-4.4692429999999996</v>
+        <v>-3.54907E-2</v>
       </c>
       <c r="E6" t="s">
         <v>65</v>
       </c>
       <c r="F6" s="48">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
         <v>130</v>
       </c>
       <c r="I6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B7" s="35">
         <v>0.1</v>
       </c>
       <c r="C7" s="9">
-        <v>-0.73104380000000002</v>
+        <v>-2.5986800000000001E-2</v>
       </c>
       <c r="F7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="35">
         <v>0.25</v>
       </c>
       <c r="C8" s="9">
-        <v>-0.25560250000000001</v>
+        <v>-1.63348E-2</v>
       </c>
       <c r="E8" t="s">
         <v>66</v>
       </c>
       <c r="F8" s="28">
-        <v>7.3860710000000003</v>
+        <v>3.1688000000000001E-2</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>71</v>
       </c>
       <c r="I8" s="19">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C9" s="9"/>
       <c r="E9" t="s">
         <v>67</v>
       </c>
       <c r="F9" s="28">
-        <v>82.432980000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.19159909999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B10" s="35">
         <v>0.5</v>
       </c>
       <c r="C10" s="9">
-        <v>9.4639000000000008E-3</v>
+        <v>1.0499999999999999E-5</v>
       </c>
       <c r="F10" s="28"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C11" s="9"/>
       <c r="E11" t="s">
         <v>68</v>
       </c>
       <c r="F11" s="28">
-        <v>6795.1970000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>3.6710199999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B12" s="35">
         <v>0.75</v>
       </c>
       <c r="C12" s="9">
-        <v>0.48917830000000001</v>
+        <v>1.7678300000000001E-2</v>
       </c>
       <c r="E12" t="s">
         <v>69</v>
       </c>
       <c r="F12" s="28">
-        <v>9.3188329999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5.2517800000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="35">
         <v>0.9</v>
       </c>
       <c r="C13" s="9">
-        <v>0.91621580000000002</v>
+        <v>2.3148200000000001E-2</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="49">
-        <v>89.044470000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>29.461829999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B14" s="35">
         <v>0.95</v>
       </c>
       <c r="C14" s="9">
-        <v>1.69503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3.40921E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="45">
         <v>0.99</v>
       </c>
       <c r="C15" s="46">
-        <v>789.47889999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.171098</v>
+      </c>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B17" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L17" s="35"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
@@ -2263,15 +2250,17 @@
       <c r="E18" s="21" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L18" s="35"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="40"/>
       <c r="C20" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L20" s="35"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B21" s="35">
         <v>0.01</v>
       </c>
@@ -2279,34 +2268,38 @@
         <v>-80.663570000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B22" s="35">
         <v>0.05</v>
       </c>
       <c r="C22" s="9">
         <v>-4.4692429999999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L22" s="35"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B23" s="35">
         <v>0.1</v>
       </c>
       <c r="C23" s="9">
         <v>-0.73104380000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L23" s="35"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B24" s="35">
         <v>0.25</v>
       </c>
       <c r="C24" s="9">
         <v>-0.25560250000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L24" s="35"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L25" s="35"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B26" s="35">
         <v>0.5</v>
       </c>
@@ -2314,10 +2307,10 @@
         <v>9.4639000000000008E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C27" s="9"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B28" s="35">
         <v>0.75</v>
       </c>
@@ -2325,7 +2318,7 @@
         <v>0.48917830000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B29" s="35">
         <v>0.9</v>
       </c>
@@ -2333,7 +2326,7 @@
         <v>0.91621580000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B30" s="35">
         <v>0.95</v>
       </c>
@@ -2341,7 +2334,7 @@
         <v>1.69503</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="45">
         <v>0.99</v>
       </c>
@@ -2349,7 +2342,7 @@
         <v>789.47889999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2376,26 +2369,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="62" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="64"/>
+      <c r="B3" s="62"/>
     </row>
     <row r="4" spans="1:4" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2595,7 +2588,7 @@
   <dimension ref="B1:U15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2608,50 +2601,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="65" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="H1" s="66" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="H1" s="65" t="s">
         <v>212</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="N1" s="66" t="s">
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="N1" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="H2" s="67" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="H2" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="N2" s="67" t="s">
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="N2" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
     </row>
     <row r="3" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4"/>
@@ -2680,16 +2673,16 @@
       <c r="L3" s="4">
         <v>2017</v>
       </c>
-      <c r="O3" s="61">
+      <c r="O3" s="59">
         <v>2001</v>
       </c>
-      <c r="P3" s="61">
+      <c r="P3" s="59">
         <v>2006</v>
       </c>
       <c r="Q3" s="4">
         <v>2012</v>
       </c>
-      <c r="R3" s="61">
+      <c r="R3" s="59">
         <v>2017</v>
       </c>
     </row>
@@ -2836,7 +2829,7 @@
       <c r="R6" s="30">
         <v>7088689</v>
       </c>
-      <c r="U6" s="62"/>
+      <c r="U6" s="60"/>
     </row>
     <row r="7" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
@@ -2941,58 +2934,58 @@
       <c r="B10" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="58">
         <f>+C4/C$7</f>
         <v>0.45714984615740595</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="58">
         <f t="shared" ref="D10:F10" si="3">+D4/D$7</f>
         <v>0.41709555692655492</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="58">
         <f t="shared" si="3"/>
         <v>0.34020945227600013</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="58">
         <f t="shared" si="3"/>
         <v>0.30283992492425504</v>
       </c>
       <c r="H10" t="s">
         <v>93</v>
       </c>
-      <c r="I10" s="60">
+      <c r="I10" s="58">
         <f t="shared" ref="I10:L13" si="4">+I4/I$7</f>
         <v>0.4711448608360938</v>
       </c>
-      <c r="J10" s="60">
+      <c r="J10" s="58">
         <f t="shared" si="4"/>
         <v>0.43293416841828847</v>
       </c>
-      <c r="K10" s="60">
+      <c r="K10" s="58">
         <f t="shared" si="4"/>
         <v>0.34955936030966289</v>
       </c>
-      <c r="L10" s="60">
+      <c r="L10" s="58">
         <f t="shared" si="4"/>
         <v>0.31351916949490627</v>
       </c>
-      <c r="M10" s="60"/>
+      <c r="M10" s="58"/>
       <c r="N10" t="s">
         <v>93</v>
       </c>
-      <c r="O10" s="60">
+      <c r="O10" s="58">
         <f>+O4/O$7</f>
         <v>0.48978827880706949</v>
       </c>
-      <c r="P10" s="60">
+      <c r="P10" s="58">
         <f t="shared" ref="P10:R10" si="5">+P4/P$7</f>
         <v>0.45247370296325407</v>
       </c>
-      <c r="Q10" s="60">
+      <c r="Q10" s="58">
         <f t="shared" si="5"/>
         <v>0.36498720813961988</v>
       </c>
-      <c r="R10" s="60">
+      <c r="R10" s="58">
         <f t="shared" si="5"/>
         <v>0.32667469189840564</v>
       </c>
@@ -3001,58 +2994,58 @@
       <c r="B11" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="58">
         <f t="shared" ref="C11:F11" si="6">+C5/C$7</f>
         <v>0.23196623561416246</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="58">
         <f t="shared" si="6"/>
         <v>0.22465000720331807</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="58">
         <f t="shared" si="6"/>
         <v>0.2208193959779306</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="58">
         <f t="shared" si="6"/>
         <v>0.2201646387778057</v>
       </c>
       <c r="H11" t="s">
         <v>211</v>
       </c>
-      <c r="I11" s="60">
+      <c r="I11" s="58">
         <f t="shared" si="4"/>
         <v>0.24976687212837287</v>
       </c>
-      <c r="J11" s="60">
+      <c r="J11" s="58">
         <f t="shared" si="4"/>
         <v>0.24347895838928746</v>
       </c>
-      <c r="K11" s="60">
+      <c r="K11" s="58">
         <f t="shared" si="4"/>
         <v>0.23955194574798333</v>
       </c>
-      <c r="L11" s="60">
+      <c r="L11" s="58">
         <f t="shared" si="4"/>
         <v>0.24000992639179192</v>
       </c>
-      <c r="M11" s="60"/>
+      <c r="M11" s="58"/>
       <c r="N11" t="s">
         <v>211</v>
       </c>
-      <c r="O11" s="60">
+      <c r="O11" s="58">
         <f t="shared" ref="O11:R13" si="7">+O5/O$7</f>
         <v>0.27152068520708916</v>
       </c>
-      <c r="P11" s="60">
+      <c r="P11" s="58">
         <f t="shared" si="7"/>
         <v>0.26756261071145815</v>
       </c>
-      <c r="Q11" s="60">
+      <c r="Q11" s="58">
         <f t="shared" si="7"/>
         <v>0.26720187616885743</v>
       </c>
-      <c r="R11" s="60">
+      <c r="R11" s="58">
         <f t="shared" si="7"/>
         <v>0.26624316934555964</v>
       </c>
@@ -3061,58 +3054,58 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="58">
         <f t="shared" ref="C12:F12" si="8">+C6/C$7</f>
         <v>0.31088391822843159</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="58">
         <f t="shared" si="8"/>
         <v>0.35825443587012701</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="58">
         <f t="shared" si="8"/>
         <v>0.43897115174606927</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="58">
         <f t="shared" si="8"/>
         <v>0.47699543629793922</v>
       </c>
       <c r="H12" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="60">
+      <c r="I12" s="58">
         <f t="shared" si="4"/>
         <v>0.2790882670355333</v>
       </c>
-      <c r="J12" s="60">
+      <c r="J12" s="58">
         <f t="shared" si="4"/>
         <v>0.32358687319242407</v>
       </c>
-      <c r="K12" s="60">
+      <c r="K12" s="58">
         <f t="shared" si="4"/>
         <v>0.41088869394235378</v>
       </c>
-      <c r="L12" s="60">
+      <c r="L12" s="58">
         <f t="shared" si="4"/>
         <v>0.44647090411330181</v>
       </c>
-      <c r="M12" s="60"/>
+      <c r="M12" s="58"/>
       <c r="N12" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="60">
+      <c r="O12" s="58">
         <f t="shared" si="7"/>
         <v>0.23869103598584135</v>
       </c>
-      <c r="P12" s="60">
+      <c r="P12" s="58">
         <f t="shared" si="7"/>
         <v>0.27996368632528773</v>
       </c>
-      <c r="Q12" s="60">
+      <c r="Q12" s="58">
         <f t="shared" si="7"/>
         <v>0.36781091569152263</v>
       </c>
-      <c r="R12" s="60">
+      <c r="R12" s="58">
         <f t="shared" si="7"/>
         <v>0.40708213875603472</v>
       </c>
@@ -3121,58 +3114,58 @@
       <c r="B13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="60">
+      <c r="C13" s="58">
         <f t="shared" ref="C13:F13" si="9">+C7/C$7</f>
         <v>1</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="58">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="58">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="58">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H13" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="60">
+      <c r="I13" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J13" s="60">
+      <c r="J13" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L13" s="60">
+      <c r="L13" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M13" s="60"/>
+      <c r="M13" s="58"/>
       <c r="N13" t="s">
         <v>71</v>
       </c>
-      <c r="O13" s="60">
+      <c r="O13" s="58">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="P13" s="60">
+      <c r="P13" s="58">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q13" s="60">
+      <c r="Q13" s="58">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="R13" s="60">
+      <c r="R13" s="58">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -3214,16 +3207,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="69"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="57" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3752,13 +3745,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
       <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3836,16 +3829,16 @@
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="53">
         <v>0.31061129999999998</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="53">
         <v>0.20215459999999999</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="53">
         <v>0.180814</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="53">
         <v>0.23334750000000001</v>
       </c>
       <c r="J6" s="30"/>
@@ -3854,7 +3847,7 @@
       <c r="A7" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="56">
         <v>156</v>
       </c>
       <c r="C7" s="46"/>
@@ -3872,12 +3865,12 @@
       <c r="E8" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="13"/>
@@ -4157,16 +4150,16 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="53">
+      <c r="B34" s="52">
         <v>156</v>
       </c>
-      <c r="C34" s="53">
+      <c r="C34" s="52">
         <v>156</v>
       </c>
-      <c r="D34" s="53">
+      <c r="D34" s="52">
         <v>156</v>
       </c>
     </row>
@@ -4176,12 +4169,12 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="71" t="s">
+      <c r="A37" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="13"/>
@@ -4460,16 +4453,16 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="52" t="s">
+      <c r="A61" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="53">
+      <c r="B61" s="52">
         <v>62</v>
       </c>
-      <c r="C61" s="53">
+      <c r="C61" s="52">
         <v>62</v>
       </c>
-      <c r="D61" s="53">
+      <c r="D61" s="52">
         <v>62</v>
       </c>
     </row>
@@ -4496,8 +4489,8 @@
   </sheetPr>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="91" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D15"/>
+    <sheetView showGridLines="0" zoomScale="91" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4507,21 +4500,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="61" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
@@ -4759,47 +4752,47 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
     </row>
     <row r="25" spans="1:5" ht="33.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
@@ -5061,13 +5054,13 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="73"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
     </row>
     <row r="45" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
@@ -5103,10 +5096,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="62" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5421,10 +5414,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="62" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5435,36 +5428,36 @@
       <c r="AB2"/>
     </row>
     <row r="3" spans="1:29" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
       <c r="AC3" s="32"/>
     </row>
     <row r="4" spans="1:29" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5889,19 +5882,19 @@
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14" s="62">
         <v>156</v>
       </c>
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="64">
+      <c r="B15" s="62">
         <v>16720</v>
       </c>
       <c r="T15" s="4"/>
@@ -5928,18 +5921,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="63" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="65">
+      <c r="B2" s="63">
         <v>156</v>
       </c>
     </row>
@@ -5948,35 +5941,35 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="78" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="75" t="s">
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B5" s="36" t="s">
@@ -7080,8 +7073,8 @@
   </sheetPr>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7091,20 +7084,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
@@ -7223,7 +7216,7 @@
       <c r="A8" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="54" t="s">
         <v>141</v>
       </c>
     </row>
@@ -7231,16 +7224,16 @@
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="55" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7248,25 +7241,25 @@
       <c r="A10" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="55">
+      <c r="B10" s="54">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G13" s="79" t="s">
+      <c r="G13" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
@@ -7385,7 +7378,7 @@
       <c r="A19" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="54" t="s">
         <v>141</v>
       </c>
     </row>
@@ -7393,16 +7386,16 @@
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="56" t="s">
+      <c r="E20" s="55" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7418,20 +7411,20 @@
       <c r="E21" s="1"/>
     </row>
     <row r="23" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
     </row>
     <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G24" s="79" t="s">
+      <c r="G24" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
     </row>
     <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
@@ -7586,7 +7579,7 @@
       <c r="A30" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="64" t="s">
         <v>141</v>
       </c>
     </row>
@@ -7594,16 +7587,16 @@
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="56" t="s">
+      <c r="D31" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="55" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7626,20 +7619,20 @@
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="80" t="s">
+      <c r="A34" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
     </row>
     <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G35" s="79" t="s">
+      <c r="G35" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
     </row>
     <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
@@ -7671,90 +7664,111 @@
       <c r="A37" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="G37" s="18" t="e">
+      <c r="B37" s="9">
+        <v>0.30002408033317401</v>
+      </c>
+      <c r="C37" s="9">
+        <v>0.38983157888076198</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0.77387006959986604</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0.132595645940602</v>
+      </c>
+      <c r="G37" s="18">
         <f t="shared" ref="G37:G39" si="4">+C37/$B37</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="18" t="e">
+        <v>1.2993343015929173</v>
+      </c>
+      <c r="H37" s="18">
         <f t="shared" ref="H37:H39" si="5">+D37/$B37</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="18" t="e">
+        <v>2.579359859183604</v>
+      </c>
+      <c r="I37" s="18">
         <f t="shared" ref="I37:I39" si="6">+E37/$B37</f>
-        <v>#DIV/0!</v>
+        <v>0.44195001212354601</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="G38" s="18" t="e">
+      <c r="B38" s="9">
+        <v>0.30002408033317401</v>
+      </c>
+      <c r="C38" s="9">
+        <v>0.536012038389163</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0.65158108175637797</v>
+      </c>
+      <c r="E38" s="9">
+        <v>6.9889421558501405E-2</v>
+      </c>
+      <c r="G38" s="18">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" s="18" t="e">
+        <v>1.7865633911582248</v>
+      </c>
+      <c r="H38" s="18">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="18" t="e">
+        <v>2.1717626166299819</v>
+      </c>
+      <c r="I38" s="18">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.23294604046745127</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="G39" s="18" t="e">
+      <c r="B39" s="20">
+        <v>0.30002408033317401</v>
+      </c>
+      <c r="C39" s="20">
+        <v>0.62828630817505104</v>
+      </c>
+      <c r="D39" s="20">
+        <v>0.55193979369233104</v>
+      </c>
+      <c r="E39" s="20">
+        <v>4.5849482279728501E-2</v>
+      </c>
+      <c r="G39" s="18">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" s="18" t="e">
+        <v>2.0941196035909679</v>
+      </c>
+      <c r="H39" s="18">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="18" t="e">
+        <v>1.8396516475591123</v>
+      </c>
+      <c r="I39" s="18">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.15281934113026216</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" t="s">
-        <v>221</v>
+      <c r="B41" s="54" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="56" t="s">
+      <c r="D42" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="56" t="s">
+      <c r="E42" s="55" t="s">
         <v>84</v>
       </c>
     </row>
@@ -7770,20 +7784,20 @@
       <c r="E43" s="1"/>
     </row>
     <row r="45" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="80" t="s">
+      <c r="A45" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="80"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
     </row>
     <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G46" s="79" t="s">
+      <c r="G46" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="79"/>
-      <c r="I46" s="79"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="78"/>
     </row>
     <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="10" t="s">
@@ -7902,24 +7916,24 @@
       <c r="A52" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B52" s="58" t="s">
-        <v>143</v>
+      <c r="B52" s="64" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="56" t="s">
+      <c r="B53" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="56" t="s">
+      <c r="D53" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="56" t="s">
+      <c r="E53" s="55" t="s">
         <v>84</v>
       </c>
     </row>

--- a/results/tables/final_tables_6_22.xlsx
+++ b/results/tables/final_tables_6_22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thecs\Dropbox (Boston University)\1_boston_university\8-Research Assistantship\ukData\results\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8E5A75-70EC-492F-8289-58B0E03BA7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0246BD-C8A3-461C-8F5F-7360570B1F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="-25230" windowWidth="16410" windowHeight="12675" firstSheet="8" activeTab="10" xr2:uid="{E382401A-5014-4F77-A3DB-04E9551C20F1}"/>
+    <workbookView xWindow="28695" yWindow="-12660" windowWidth="16410" windowHeight="12660" tabRatio="656" firstSheet="9" activeTab="12" xr2:uid="{E382401A-5014-4F77-A3DB-04E9551C20F1}"/>
   </bookViews>
   <sheets>
     <sheet name="occupation_numbers" sheetId="11" r:id="rId1"/>
@@ -25,7 +25,11 @@
     <sheet name="OLS_thetas" sheetId="8" r:id="rId10"/>
     <sheet name="sigma_estimates" sheetId="3" r:id="rId11"/>
     <sheet name="top_jobs_skill" sheetId="5" r:id="rId12"/>
+    <sheet name="index_composition" sheetId="14" r:id="rId13"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId14"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'step-up'!$E$9:$F$32</definedName>
   </definedNames>
@@ -94,26 +98,8 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={89256DDE-9554-499E-A7D9-CD9CC41B184F}</author>
-  </authors>
-  <commentList>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{89256DDE-9554-499E-A7D9-CD9CC41B184F}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Should I winsorize it?</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="245">
   <si>
     <t>Occupation fixed-effects</t>
   </si>
@@ -801,6 +787,78 @@
   <si>
     <t>9211 post wrkr, mail sort, msngr, courir</t>
   </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Name in SES</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>chands</t>
+  </si>
+  <si>
+    <t>cstamina</t>
+  </si>
+  <si>
+    <t>cpeople</t>
+  </si>
+  <si>
+    <t>cteamwk</t>
+  </si>
+  <si>
+    <t>clisten</t>
+  </si>
+  <si>
+    <t>bvariety</t>
+  </si>
+  <si>
+    <t>cspeech</t>
+  </si>
+  <si>
+    <t>cpersuad</t>
+  </si>
+  <si>
+    <t>cteach</t>
+  </si>
+  <si>
+    <t>brepeat</t>
+  </si>
+  <si>
+    <t>bme4</t>
+  </si>
+  <si>
+    <t>cwritelg</t>
+  </si>
+  <si>
+    <t>clong</t>
+  </si>
+  <si>
+    <t>ccalca</t>
+  </si>
+  <si>
+    <t>cpercent</t>
+  </si>
+  <si>
+    <t>cstats</t>
+  </si>
+  <si>
+    <t>csolutn</t>
+  </si>
+  <si>
+    <t>canalyse</t>
+  </si>
+  <si>
+    <t>cstrengt</t>
+  </si>
+  <si>
+    <t>cplanme</t>
+  </si>
+  <si>
+    <t>cplanoth</t>
+  </si>
 </sst>
 </file>
 
@@ -811,7 +869,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000_);\(0.0000\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -875,6 +933,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1043,7 +1108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1212,7 +1277,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1409,6 +1486,24 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="index"/>
+      <sheetName val="correlation_colors"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1746,14 +1841,6 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D18" dT="2023-05-04T15:19:28.63" personId="{F8FA700A-AE49-4429-93AD-D984B9D4E946}" id="{89256DDE-9554-499E-A7D9-CD9CC41B184F}">
-    <text>Should I winsorize it?</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0015E950-0C00-44DF-A022-5067B9A7E9E0}">
   <sheetPr>
@@ -1762,7 +1849,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1821,7 +1908,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2026,14 +2113,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C324394-3725-49AA-88D9-CE062D28E523}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C324394-3725-49AA-88D9-CE062D28E523}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2053,7 +2140,6 @@
       <c r="B1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K1" s="80"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -2063,7 +2149,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>22</v>
@@ -2250,6 +2336,8 @@
       <c r="E18" s="21" t="s">
         <v>84</v>
       </c>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
       <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -2258,6 +2346,18 @@
       <c r="C20" s="10" t="s">
         <v>63</v>
       </c>
+      <c r="E20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="47">
+        <v>93</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="5">
+        <v>80</v>
+      </c>
       <c r="L20" s="35"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -2265,7 +2365,19 @@
         <v>0.01</v>
       </c>
       <c r="C21" s="9">
-        <v>-80.663570000000007</v>
+        <v>-166.69640000000001</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="48">
+        <v>93</v>
+      </c>
+      <c r="H21" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -2273,16 +2385,29 @@
         <v>0.05</v>
       </c>
       <c r="C22" s="9">
-        <v>-4.4692429999999996</v>
-      </c>
+        <v>-14.417479999999999</v>
+      </c>
+      <c r="F22" s="28"/>
       <c r="L22" s="35"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="35">
         <v>0.1</v>
       </c>
       <c r="C23" s="9">
-        <v>-0.73104380000000002</v>
+        <v>-4.6349489999999998</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="28">
+        <v>1.2513000000000001</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="19">
+        <v>93</v>
       </c>
       <c r="L23" s="35"/>
     </row>
@@ -2291,12 +2416,19 @@
         <v>0.25</v>
       </c>
       <c r="C24" s="9">
-        <v>-0.25560250000000001</v>
+        <v>-1.3360289999999999</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="28">
+        <v>23.260300000000001</v>
       </c>
       <c r="L24" s="35"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C25" s="9"/>
+      <c r="F25" s="28"/>
       <c r="L25" s="35"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -2304,18 +2436,36 @@
         <v>0.5</v>
       </c>
       <c r="C26" s="9">
-        <v>9.4639000000000008E-3</v>
+        <v>0.63808260000000006</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="28">
+        <v>541.04150000000004</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="28">
+        <v>-3.6497830000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="35">
         <v>0.75</v>
       </c>
       <c r="C28" s="9">
-        <v>0.48917830000000001</v>
+        <v>4.7886990000000003</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="49">
+        <v>33.000590000000003</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -2323,7 +2473,7 @@
         <v>0.9</v>
       </c>
       <c r="C29" s="9">
-        <v>0.91621580000000002</v>
+        <v>15.169890000000001</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -2331,7 +2481,7 @@
         <v>0.95</v>
       </c>
       <c r="C30" s="9">
-        <v>1.69503</v>
+        <v>31.69042</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2339,13 +2489,15 @@
         <v>0.99</v>
       </c>
       <c r="C31" s="46">
-        <v>789.47889999999995</v>
+        <v>87.77825</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H18:I18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2583,12 +2735,325 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F0097E-5ADA-4F9F-8E43-EFEAF7A70026}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="47.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="80" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="82" t="str">
+        <f>+VLOOKUP(B4,[1]!Table1[#Data],2,FALSE)</f>
+        <v>importance of: skill or accuracy in using hands/fingers</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="82" t="str">
+        <f>+VLOOKUP(B5,[1]!Table1[#Data],2,FALSE)</f>
+        <v>importance of: physical strength</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="82" t="str">
+        <f>+VLOOKUP(B6,[1]!Table1[#Data],2,FALSE)</f>
+        <v>importance of: physical stamina</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="82" t="str">
+        <f>+VLOOKUP(B8,[1]!Table1[#Data],2,FALSE)</f>
+        <v>importance of: dealing with people</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="82" t="str">
+        <f>+VLOOKUP(B9,[1]!Table1[#Data],2,FALSE)</f>
+        <v>importance of: working with a team</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="82" t="str">
+        <f>+VLOOKUP(B10,[1]!Table1[#Data],2,FALSE)</f>
+        <v>importance of: listening carefully to colleagues</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="82" t="str">
+        <f>+VLOOKUP(B11,[1]!Table1[#Data],2,FALSE)</f>
+        <v>importance of: making speeches/ presentations</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="82" t="str">
+        <f>+VLOOKUP(B12,[1]!Table1[#Data],2,FALSE)</f>
+        <v>importance of: persuading or influencing others</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="82" t="str">
+        <f>+VLOOKUP(B13,[1]!Table1[#Data],2,FALSE)</f>
+        <v>importance of: teaching people (individuals or groups)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="82" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="82" t="str">
+        <f>+VLOOKUP(B15,[1]!Table1[#Data],2,FALSE)</f>
+        <v>how often work involves short repetitive tasks</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="82" t="str">
+        <f>+VLOOKUP(B16,[1]!Table1[#Data],2,FALSE)</f>
+        <v>influence personally have on: quality standards work to</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="82" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="82" t="str">
+        <f>+VLOOKUP(B17,[1]!Table1[#Data],2,FALSE)</f>
+        <v>how much variety in job</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="82" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="82" t="str">
+        <f>+VLOOKUP(B18,[1]!Table1[#Data],2,FALSE)</f>
+        <v>Importance of planning own act, bigger=less routine</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" s="82" t="str">
+        <f>+VLOOKUP(B20,[1]!Table1[#Data],2,FALSE)</f>
+        <v>importance of: writing long documents</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="82" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="82" t="str">
+        <f>+VLOOKUP(B21,[1]!Table1[#Data],2,FALSE)</f>
+        <v>importance of: reading long documents</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="82" t="s">
+        <v>237</v>
+      </c>
+      <c r="C22" s="82" t="str">
+        <f>+VLOOKUP(B22,[1]!Table1[#Data],2,FALSE)</f>
+        <v>importance of: arithmetic (adding, subtracting, multiplying, divid</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="82" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" s="82" t="str">
+        <f>+VLOOKUP(B23,[1]!Table1[#Data],2,FALSE)</f>
+        <v>importance of: arithmetic involving fractions (decimals, percentag</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="82" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" s="82" t="str">
+        <f>+VLOOKUP(B24,[1]!Table1[#Data],2,FALSE)</f>
+        <v>importance of: advanced mathematics/ statistics (using calculator/</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="82" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="82" t="str">
+        <f>+VLOOKUP(B25,[1]!Table1[#Data],2,FALSE)</f>
+        <v>importance of: planning the activities of others</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="82" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="82" t="str">
+        <f>+VLOOKUP(B26,[1]!Table1[#Data],2,FALSE)</f>
+        <v>importance of: thinking of solutions to problems</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27" s="41" t="str">
+        <f>+VLOOKUP(B27,[1]!Table1[#Data],2,FALSE)</f>
+        <v>importance of: analysing complex problems in depth</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CAF832-E4CD-4D78-919A-B2CAC1381075}">
   <dimension ref="B1:U15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G13" sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3196,8 +3661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DD79C6-8E03-4472-BA01-B1AB9175E2E7}">
   <dimension ref="B2:C65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3734,8 +4199,8 @@
   </sheetPr>
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D6"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4489,7 +4954,7 @@
   </sheetPr>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="91" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A21" zoomScale="91" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -5084,7 +5549,7 @@
   <dimension ref="B2:F32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5398,8 +5863,8 @@
   </sheetPr>
   <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5911,8 +6376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F3C55B-20D0-4D01-AB90-788A157F68F3}">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7073,8 +7538,8 @@
   </sheetPr>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7245,7 +7710,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="79" t="s">
         <v>26</v>
       </c>
@@ -7254,14 +7719,14 @@
       <c r="D12" s="79"/>
       <c r="E12" s="79"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G13" s="78" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="78"/>
       <c r="I13" s="78"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>8</v>
       </c>
@@ -7287,7 +7752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -7316,7 +7781,7 @@
         <v>8.0096069126124061E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -7345,7 +7810,7 @@
         <v>8.2404717945099751E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="19" t="s">
         <v>10</v>
       </c>
@@ -7374,7 +7839,8 @@
         <v>8.992433008205325E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>140</v>
       </c>
@@ -7382,7 +7848,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -7399,7 +7865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>118</v>
       </c>
@@ -7410,7 +7876,8 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="23" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:15" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="79" t="s">
         <v>26</v>
       </c>
@@ -7419,14 +7886,14 @@
       <c r="D23" s="79"/>
       <c r="E23" s="79"/>
     </row>
-    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G24" s="78" t="s">
         <v>24</v>
       </c>
       <c r="H24" s="78"/>
       <c r="I24" s="78"/>
     </row>
-    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
         <v>8</v>
       </c>
@@ -7464,7 +7931,7 @@
         <v>0.24817665064047001</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -7505,7 +7972,7 @@
         <v>3.5119315719301103E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -7546,7 +8013,7 @@
         <v>9.3186362566577502E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -7575,7 +8042,8 @@
         <v>0.38561453292854309</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>140</v>
       </c>
@@ -7583,7 +8051,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -7600,7 +8068,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>118</v>
       </c>

--- a/results/tables/final_tables_6_22.xlsx
+++ b/results/tables/final_tables_6_22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thecs\Dropbox (Boston University)\1_boston_university\8-Research Assistantship\ukData\results\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8095FAF-6F48-4F3E-9275-C612C7BDD14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E923F7-8DAB-4DDD-9FC8-CF80CA41E2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="656" xr2:uid="{E382401A-5014-4F77-A3DB-04E9551C20F1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="656" firstSheet="5" activeTab="9" xr2:uid="{E382401A-5014-4F77-A3DB-04E9551C20F1}"/>
   </bookViews>
   <sheets>
     <sheet name="education_classification" sheetId="15" r:id="rId1"/>
@@ -87,7 +87,7 @@
     <author>tc={134ADD85-417C-4FE4-8D98-C9A6AB9E32ED}</author>
   </authors>
   <commentList>
-    <comment ref="D42" authorId="0" shapeId="0" xr:uid="{134ADD85-417C-4FE4-8D98-C9A6AB9E32ED}">
+    <comment ref="D45" authorId="0" shapeId="0" xr:uid="{134ADD85-417C-4FE4-8D98-C9A6AB9E32ED}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -895,10 +895,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000_);\(0.0000\)"/>
+    <numFmt numFmtId="167" formatCode="0.000_);\(0.000\)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1139,7 +1140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1277,6 +1278,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1322,7 +1324,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1868,7 +1879,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D42" dT="2023-05-04T15:19:28.63" personId="{F8FA700A-AE49-4429-93AD-D984B9D4E946}" id="{134ADD85-417C-4FE4-8D98-C9A6AB9E32ED}">
+  <threadedComment ref="D45" dT="2023-05-04T15:19:28.63" personId="{F8FA700A-AE49-4429-93AD-D984B9D4E946}" id="{134ADD85-417C-4FE4-8D98-C9A6AB9E32ED}">
     <text>Should I winsorize it?</text>
   </threadedComment>
 </ThreadedComments>
@@ -1878,7 +1889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7471085D-BC16-46A9-AF3A-D1F9FAE30012}">
   <dimension ref="A2:F9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -1971,19 +1982,19 @@
       <c r="A8" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B8" s="88">
+      <c r="B8" s="73">
         <v>-0.62474819000000004</v>
       </c>
-      <c r="C8" s="88">
+      <c r="C8" s="73">
         <v>-0.72046911000000002</v>
       </c>
-      <c r="D8" s="88">
+      <c r="D8" s="73">
         <v>-0.84169570999999999</v>
       </c>
-      <c r="E8" s="88">
+      <c r="E8" s="73">
         <v>-0.57978885999999996</v>
       </c>
-      <c r="F8" s="88">
+      <c r="F8" s="73">
         <v>0.99999998999999995</v>
       </c>
     </row>
@@ -1999,10 +2010,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2012,20 +2023,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="86" t="s">
+      <c r="G2" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
@@ -2174,20 +2185,20 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
     </row>
     <row r="13" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G13" s="86" t="s">
+      <c r="G13" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
     </row>
     <row r="14" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
@@ -2341,20 +2352,20 @@
     </row>
     <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:15" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
     </row>
     <row r="24" spans="1:15" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G24" s="86" t="s">
+      <c r="G24" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
     </row>
     <row r="25" spans="1:15" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
@@ -2542,30 +2553,30 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="87" t="s">
+    <row r="34" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-    </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G35" s="86" t="s">
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G35" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-    </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+    </row>
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
         <v>8</v>
       </c>
@@ -2591,296 +2602,392 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="90">
         <v>0.30002408033317401</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="90">
         <v>0.38983157888076198</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="90">
         <v>0.77387006959986604</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="90">
         <v>0.132595645940602</v>
       </c>
       <c r="G37" s="18">
-        <f t="shared" ref="G37:G39" si="4">+C37/$B37</f>
+        <f t="shared" ref="G37" si="4">+C37/$B37</f>
         <v>1.2993343015929173</v>
       </c>
       <c r="H37" s="18">
-        <f t="shared" ref="H37:H39" si="5">+D37/$B37</f>
+        <f t="shared" ref="H37" si="5">+D37/$B37</f>
         <v>2.579359859183604</v>
       </c>
       <c r="I37" s="18">
-        <f t="shared" ref="I37:I39" si="6">+E37/$B37</f>
+        <f t="shared" ref="I37:I41" si="6">+E37/$B37</f>
         <v>0.44195001212354601</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="91">
+        <f>-G42</f>
+        <v>-3.27791808747964E-2</v>
+      </c>
+      <c r="C38" s="91">
+        <f t="shared" ref="C38:E38" si="7">-H42</f>
+        <v>-7.5396741976460305E-2</v>
+      </c>
+      <c r="D38" s="91">
+        <f t="shared" si="7"/>
+        <v>-0.115293505002319</v>
+      </c>
+      <c r="E38" s="91">
+        <f t="shared" si="7"/>
+        <v>-0.14196233908585501</v>
+      </c>
+      <c r="G38" s="18">
+        <f>+C39/$B39</f>
+        <v>1.7865633911582248</v>
+      </c>
+      <c r="H38" s="18">
+        <f>+D39/$B39</f>
+        <v>2.1717626166299819</v>
+      </c>
+      <c r="I38" s="18">
+        <f>+E39/$B39</f>
+        <v>0.23294604046745127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B39" s="90">
         <v>0.30002408033317401</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C39" s="90">
         <v>0.536012038389163</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="90">
         <v>0.65158108175637797</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E39" s="90">
         <v>6.9889421558501405E-2</v>
       </c>
-      <c r="G38" s="18">
-        <f t="shared" si="4"/>
-        <v>1.7865633911582248</v>
-      </c>
-      <c r="H38" s="18">
-        <f t="shared" si="5"/>
-        <v>2.1717626166299819</v>
-      </c>
-      <c r="I38" s="18">
-        <f t="shared" si="6"/>
-        <v>0.23294604046745127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="19" t="s">
+      <c r="G39" s="18">
+        <f>+C41/$B41</f>
+        <v>2.0941196035909679</v>
+      </c>
+      <c r="H39" s="18">
+        <f>+D41/$B41</f>
+        <v>1.8396516475591123</v>
+      </c>
+      <c r="I39" s="18">
+        <f>+E41/$B41</f>
+        <v>0.15281934113026216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="91">
+        <f>-G43</f>
+        <v>-3.5902339137002803E-2</v>
+      </c>
+      <c r="C40" s="91">
+        <f t="shared" ref="C40:E40" si="8">-H43</f>
+        <v>-8.7285450730600303E-2</v>
+      </c>
+      <c r="D40" s="91">
+        <f t="shared" si="8"/>
+        <v>-8.3582228841739506E-2</v>
+      </c>
+      <c r="E40" s="91">
+        <f t="shared" si="8"/>
+        <v>-9.8175524348070906E-2</v>
+      </c>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B41" s="90">
         <v>0.30002408033317401</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C41" s="90">
         <v>0.62828630817505104</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D41" s="90">
         <v>0.55193979369233104</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E41" s="90">
         <v>4.5849482279728501E-2</v>
       </c>
-      <c r="G39" s="18">
-        <f t="shared" si="4"/>
-        <v>2.0941196035909679</v>
-      </c>
-      <c r="H39" s="18">
-        <f t="shared" si="5"/>
-        <v>1.8396516475591123</v>
-      </c>
-      <c r="I39" s="18">
-        <f t="shared" si="6"/>
-        <v>0.15281934113026216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
+    </row>
+    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="19"/>
+      <c r="B42" s="92">
+        <f>-G44</f>
+        <v>-3.5398027084865398E-2</v>
+      </c>
+      <c r="C42" s="92">
+        <f t="shared" ref="C42:E42" si="9">-H44</f>
+        <v>-8.8625088080741696E-2</v>
+      </c>
+      <c r="D42" s="92">
+        <f t="shared" si="9"/>
+        <v>-8.7677991056143698E-2</v>
+      </c>
+      <c r="E42" s="92">
+        <f t="shared" si="9"/>
+        <v>-7.5233432632621805E-2</v>
+      </c>
+      <c r="G42" s="18">
+        <v>3.27791808747964E-2</v>
+      </c>
+      <c r="H42" s="18">
+        <v>7.5396741976460305E-2</v>
+      </c>
+      <c r="I42" s="18">
+        <v>0.115293505002319</v>
+      </c>
+      <c r="J42">
+        <v>0.14196233908585501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G43">
+        <v>3.5902339137002803E-2</v>
+      </c>
+      <c r="H43">
+        <v>8.7285450730600303E-2</v>
+      </c>
+      <c r="I43">
+        <v>8.3582228841739506E-2</v>
+      </c>
+      <c r="J43">
+        <v>9.8175524348070906E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B44" s="54" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
+      <c r="G44">
+        <v>3.5398027084865398E-2</v>
+      </c>
+      <c r="H44">
+        <v>8.8625088080741696E-2</v>
+      </c>
+      <c r="I44">
+        <v>8.7677991056143698E-2</v>
+      </c>
+      <c r="J44">
+        <v>7.5233432632621805E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B45" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C45" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="55" t="s">
+      <c r="D45" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="55" t="s">
+      <c r="E45" s="55" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B46" s="1">
         <v>93</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="45" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="87" t="s">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="48" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A48" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="87"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-    </row>
-    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G46" s="86" t="s">
+      <c r="B48" s="88"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
+    </row>
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G49" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="86"/>
-      <c r="I46" s="86"/>
-    </row>
-    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="10" t="s">
+      <c r="H49" s="87"/>
+      <c r="I49" s="87"/>
+    </row>
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B50" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D50" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E50" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G50" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H50" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="I50" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B51" s="9">
         <v>0.27409229552616299</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C51" s="9">
         <v>0.376512905972681</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D51" s="9">
         <v>0.79002107522393805</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E51" s="9">
         <v>0.15027534446115601</v>
       </c>
-      <c r="G48" s="18">
-        <f t="shared" ref="G48:G50" si="7">+C48/$B48</f>
+      <c r="G51" s="18">
+        <f t="shared" ref="G51:G53" si="10">+C51/$B51</f>
         <v>1.373671978812486</v>
       </c>
-      <c r="H48" s="18">
-        <f t="shared" ref="H48:H50" si="8">+D48/$B48</f>
+      <c r="H51" s="18">
+        <f t="shared" ref="H51:H53" si="11">+D51/$B51</f>
         <v>2.882317701442024</v>
       </c>
-      <c r="I48" s="18">
-        <f t="shared" ref="I48:I50" si="9">+E48/$B48</f>
+      <c r="I51" s="18">
+        <f t="shared" ref="I51:I53" si="12">+E51/$B51</f>
         <v>0.54826548178845746</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B52" s="9">
         <v>0.27409229552616299</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C52" s="9">
         <v>0.581256120450657</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D52" s="9">
         <v>0.62356671376080797</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E52" s="9">
         <v>7.8971052048355805E-2</v>
       </c>
-      <c r="G49" s="18">
-        <f t="shared" si="7"/>
+      <c r="G52" s="18">
+        <f t="shared" si="10"/>
         <v>2.1206583692359722</v>
       </c>
-      <c r="H49" s="18">
-        <f t="shared" si="8"/>
+      <c r="H52" s="18">
+        <f t="shared" si="11"/>
         <v>2.2750245955063209</v>
       </c>
-      <c r="I49" s="18">
-        <f t="shared" si="9"/>
+      <c r="I52" s="18">
+        <f t="shared" si="12"/>
         <v>0.28811846716361922</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="19" t="s">
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="20">
+      <c r="B53" s="20">
         <v>0.27409229552616299</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C53" s="20">
         <v>0.51130203965422705</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D53" s="20">
         <v>0.61685941254475496</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E53" s="20">
         <v>0.13010063352593601</v>
       </c>
-      <c r="G50" s="18">
-        <f t="shared" si="7"/>
+      <c r="G53" s="18">
+        <f t="shared" si="10"/>
         <v>1.8654374748940057</v>
       </c>
-      <c r="H50" s="18">
-        <f t="shared" si="8"/>
+      <c r="H53" s="18">
+        <f t="shared" si="11"/>
         <v>2.2505536369075858</v>
       </c>
-      <c r="I50" s="18">
-        <f t="shared" si="9"/>
+      <c r="I53" s="18">
+        <f t="shared" si="12"/>
         <v>0.47465994356458474</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B52" s="64" t="s">
+      <c r="B55" s="64" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="55" t="s">
+      <c r="B56" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="55" t="s">
+      <c r="C56" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="55" t="s">
+      <c r="D56" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="55" t="s">
+      <c r="E56" s="55" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B57" s="4">
         <v>93</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="G35:I35"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="G49:I49"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A12:E12"/>
@@ -2949,7 +3056,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37:G39">
+  <conditionalFormatting sqref="G37:G40 G42">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2959,7 +3066,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37:H39">
+  <conditionalFormatting sqref="H37:H40 H42">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2969,7 +3076,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:I39">
+  <conditionalFormatting sqref="I37:I40 I42">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2979,7 +3086,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48:G50">
+  <conditionalFormatting sqref="G51:G53">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2989,7 +3096,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48:H50">
+  <conditionalFormatting sqref="H51:H53">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2999,7 +3106,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:I50">
+  <conditionalFormatting sqref="I51:I53">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3071,20 +3178,20 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G4" s="86" t="s">
+      <c r="G4" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
@@ -3481,8 +3588,8 @@
       <c r="E18" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
       <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3680,12 +3787,12 @@
       <c r="B3" s="62"/>
     </row>
     <row r="4" spans="1:4" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4270,66 +4377,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="74" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
       <c r="G1" s="54"/>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="N1" s="73" t="s">
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="N1" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="T1" s="73" t="s">
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="T1" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="54"/>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="N2" s="74" t="s">
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="N2" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="T2" s="74" t="s">
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="T2" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
     </row>
     <row r="3" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4"/>
@@ -5361,10 +5468,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="77" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="76"/>
+      <c r="C2" s="77"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
@@ -5899,13 +6006,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
       <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6019,12 +6126,12 @@
       <c r="E8" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="13"/>
@@ -6323,12 +6430,12 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="13"/>
@@ -6662,13 +6769,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
@@ -6906,13 +7013,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="50"/>
@@ -6940,13 +7047,13 @@
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="1:5" ht="33.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="79" t="s">
+      <c r="A25" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
@@ -7208,13 +7315,13 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="80" t="s">
+      <c r="A43" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
     </row>
     <row r="45" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
@@ -7582,36 +7689,36 @@
       <c r="AB2"/>
     </row>
     <row r="3" spans="1:29" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
       <c r="AC3" s="32"/>
     </row>
     <row r="4" spans="1:29" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -8095,35 +8202,35 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="85" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="82" t="s">
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="83" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B5" s="36" t="s">

--- a/results/tables/final_tables_6_22.xlsx
+++ b/results/tables/final_tables_6_22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thecs\Dropbox (Boston University)\1_boston_university\8-Research Assistantship\ukData\results\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E923F7-8DAB-4DDD-9FC8-CF80CA41E2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADF4813-25DE-4B9F-A044-2E75399FBAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="656" firstSheet="5" activeTab="9" xr2:uid="{E382401A-5014-4F77-A3DB-04E9551C20F1}"/>
   </bookViews>
@@ -2013,7 +2013,7 @@
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2677,6 +2677,7 @@
       <c r="E39" s="90">
         <v>6.9889421558501405E-2</v>
       </c>
+      <c r="F39" s="18"/>
       <c r="G39" s="18">
         <f>+C41/$B41</f>
         <v>2.0941196035909679</v>
@@ -2727,6 +2728,7 @@
       <c r="E41" s="90">
         <v>4.5849482279728501E-2</v>
       </c>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="19"/>

--- a/results/tables/final_tables_6_22.xlsx
+++ b/results/tables/final_tables_6_22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thecs\Dropbox (Boston University)\1_boston_university\8-Research Assistantship\ukData\results\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8095FAF-6F48-4F3E-9275-C612C7BDD14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADF4813-25DE-4B9F-A044-2E75399FBAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="656" xr2:uid="{E382401A-5014-4F77-A3DB-04E9551C20F1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="656" firstSheet="5" activeTab="9" xr2:uid="{E382401A-5014-4F77-A3DB-04E9551C20F1}"/>
   </bookViews>
   <sheets>
     <sheet name="education_classification" sheetId="15" r:id="rId1"/>
@@ -87,7 +87,7 @@
     <author>tc={134ADD85-417C-4FE4-8D98-C9A6AB9E32ED}</author>
   </authors>
   <commentList>
-    <comment ref="D42" authorId="0" shapeId="0" xr:uid="{134ADD85-417C-4FE4-8D98-C9A6AB9E32ED}">
+    <comment ref="D45" authorId="0" shapeId="0" xr:uid="{134ADD85-417C-4FE4-8D98-C9A6AB9E32ED}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -895,10 +895,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000_);\(0.0000\)"/>
+    <numFmt numFmtId="167" formatCode="0.000_);\(0.000\)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1139,7 +1140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1277,6 +1278,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1322,7 +1324,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1868,7 +1879,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D42" dT="2023-05-04T15:19:28.63" personId="{F8FA700A-AE49-4429-93AD-D984B9D4E946}" id="{134ADD85-417C-4FE4-8D98-C9A6AB9E32ED}">
+  <threadedComment ref="D45" dT="2023-05-04T15:19:28.63" personId="{F8FA700A-AE49-4429-93AD-D984B9D4E946}" id="{134ADD85-417C-4FE4-8D98-C9A6AB9E32ED}">
     <text>Should I winsorize it?</text>
   </threadedComment>
 </ThreadedComments>
@@ -1878,7 +1889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7471085D-BC16-46A9-AF3A-D1F9FAE30012}">
   <dimension ref="A2:F9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -1971,19 +1982,19 @@
       <c r="A8" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B8" s="88">
+      <c r="B8" s="73">
         <v>-0.62474819000000004</v>
       </c>
-      <c r="C8" s="88">
+      <c r="C8" s="73">
         <v>-0.72046911000000002</v>
       </c>
-      <c r="D8" s="88">
+      <c r="D8" s="73">
         <v>-0.84169570999999999</v>
       </c>
-      <c r="E8" s="88">
+      <c r="E8" s="73">
         <v>-0.57978885999999996</v>
       </c>
-      <c r="F8" s="88">
+      <c r="F8" s="73">
         <v>0.99999998999999995</v>
       </c>
     </row>
@@ -1999,10 +2010,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2012,20 +2023,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="86" t="s">
+      <c r="G2" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
@@ -2174,20 +2185,20 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
     </row>
     <row r="13" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G13" s="86" t="s">
+      <c r="G13" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
     </row>
     <row r="14" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
@@ -2341,20 +2352,20 @@
     </row>
     <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:15" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
     </row>
     <row r="24" spans="1:15" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G24" s="86" t="s">
+      <c r="G24" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
     </row>
     <row r="25" spans="1:15" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
@@ -2542,30 +2553,30 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="87" t="s">
+    <row r="34" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-    </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G35" s="86" t="s">
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G35" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-    </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+    </row>
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
         <v>8</v>
       </c>
@@ -2591,296 +2602,394 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="90">
         <v>0.30002408033317401</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="90">
         <v>0.38983157888076198</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="90">
         <v>0.77387006959986604</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="90">
         <v>0.132595645940602</v>
       </c>
       <c r="G37" s="18">
-        <f t="shared" ref="G37:G39" si="4">+C37/$B37</f>
+        <f t="shared" ref="G37" si="4">+C37/$B37</f>
         <v>1.2993343015929173</v>
       </c>
       <c r="H37" s="18">
-        <f t="shared" ref="H37:H39" si="5">+D37/$B37</f>
+        <f t="shared" ref="H37" si="5">+D37/$B37</f>
         <v>2.579359859183604</v>
       </c>
       <c r="I37" s="18">
-        <f t="shared" ref="I37:I39" si="6">+E37/$B37</f>
+        <f t="shared" ref="I37:I41" si="6">+E37/$B37</f>
         <v>0.44195001212354601</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="91">
+        <f>-G42</f>
+        <v>-3.27791808747964E-2</v>
+      </c>
+      <c r="C38" s="91">
+        <f t="shared" ref="C38:E38" si="7">-H42</f>
+        <v>-7.5396741976460305E-2</v>
+      </c>
+      <c r="D38" s="91">
+        <f t="shared" si="7"/>
+        <v>-0.115293505002319</v>
+      </c>
+      <c r="E38" s="91">
+        <f t="shared" si="7"/>
+        <v>-0.14196233908585501</v>
+      </c>
+      <c r="G38" s="18">
+        <f>+C39/$B39</f>
+        <v>1.7865633911582248</v>
+      </c>
+      <c r="H38" s="18">
+        <f>+D39/$B39</f>
+        <v>2.1717626166299819</v>
+      </c>
+      <c r="I38" s="18">
+        <f>+E39/$B39</f>
+        <v>0.23294604046745127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B39" s="90">
         <v>0.30002408033317401</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C39" s="90">
         <v>0.536012038389163</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="90">
         <v>0.65158108175637797</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E39" s="90">
         <v>6.9889421558501405E-2</v>
       </c>
-      <c r="G38" s="18">
-        <f t="shared" si="4"/>
-        <v>1.7865633911582248</v>
-      </c>
-      <c r="H38" s="18">
-        <f t="shared" si="5"/>
-        <v>2.1717626166299819</v>
-      </c>
-      <c r="I38" s="18">
-        <f t="shared" si="6"/>
-        <v>0.23294604046745127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="19" t="s">
+      <c r="F39" s="18"/>
+      <c r="G39" s="18">
+        <f>+C41/$B41</f>
+        <v>2.0941196035909679</v>
+      </c>
+      <c r="H39" s="18">
+        <f>+D41/$B41</f>
+        <v>1.8396516475591123</v>
+      </c>
+      <c r="I39" s="18">
+        <f>+E41/$B41</f>
+        <v>0.15281934113026216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="91">
+        <f>-G43</f>
+        <v>-3.5902339137002803E-2</v>
+      </c>
+      <c r="C40" s="91">
+        <f t="shared" ref="C40:E40" si="8">-H43</f>
+        <v>-8.7285450730600303E-2</v>
+      </c>
+      <c r="D40" s="91">
+        <f t="shared" si="8"/>
+        <v>-8.3582228841739506E-2</v>
+      </c>
+      <c r="E40" s="91">
+        <f t="shared" si="8"/>
+        <v>-9.8175524348070906E-2</v>
+      </c>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B41" s="90">
         <v>0.30002408033317401</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C41" s="90">
         <v>0.62828630817505104</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D41" s="90">
         <v>0.55193979369233104</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E41" s="90">
         <v>4.5849482279728501E-2</v>
       </c>
-      <c r="G39" s="18">
-        <f t="shared" si="4"/>
-        <v>2.0941196035909679</v>
-      </c>
-      <c r="H39" s="18">
-        <f t="shared" si="5"/>
-        <v>1.8396516475591123</v>
-      </c>
-      <c r="I39" s="18">
-        <f t="shared" si="6"/>
-        <v>0.15281934113026216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
+      <c r="F41" s="18"/>
+    </row>
+    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="19"/>
+      <c r="B42" s="92">
+        <f>-G44</f>
+        <v>-3.5398027084865398E-2</v>
+      </c>
+      <c r="C42" s="92">
+        <f t="shared" ref="C42:E42" si="9">-H44</f>
+        <v>-8.8625088080741696E-2</v>
+      </c>
+      <c r="D42" s="92">
+        <f t="shared" si="9"/>
+        <v>-8.7677991056143698E-2</v>
+      </c>
+      <c r="E42" s="92">
+        <f t="shared" si="9"/>
+        <v>-7.5233432632621805E-2</v>
+      </c>
+      <c r="G42" s="18">
+        <v>3.27791808747964E-2</v>
+      </c>
+      <c r="H42" s="18">
+        <v>7.5396741976460305E-2</v>
+      </c>
+      <c r="I42" s="18">
+        <v>0.115293505002319</v>
+      </c>
+      <c r="J42">
+        <v>0.14196233908585501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G43">
+        <v>3.5902339137002803E-2</v>
+      </c>
+      <c r="H43">
+        <v>8.7285450730600303E-2</v>
+      </c>
+      <c r="I43">
+        <v>8.3582228841739506E-2</v>
+      </c>
+      <c r="J43">
+        <v>9.8175524348070906E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B44" s="54" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
+      <c r="G44">
+        <v>3.5398027084865398E-2</v>
+      </c>
+      <c r="H44">
+        <v>8.8625088080741696E-2</v>
+      </c>
+      <c r="I44">
+        <v>8.7677991056143698E-2</v>
+      </c>
+      <c r="J44">
+        <v>7.5233432632621805E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B45" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C45" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="55" t="s">
+      <c r="D45" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="55" t="s">
+      <c r="E45" s="55" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B46" s="1">
         <v>93</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="45" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="87" t="s">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="48" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A48" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="87"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-    </row>
-    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G46" s="86" t="s">
+      <c r="B48" s="88"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
+    </row>
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G49" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="86"/>
-      <c r="I46" s="86"/>
-    </row>
-    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="10" t="s">
+      <c r="H49" s="87"/>
+      <c r="I49" s="87"/>
+    </row>
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B50" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D50" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E50" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G50" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H50" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="I50" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B51" s="9">
         <v>0.27409229552616299</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C51" s="9">
         <v>0.376512905972681</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D51" s="9">
         <v>0.79002107522393805</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E51" s="9">
         <v>0.15027534446115601</v>
       </c>
-      <c r="G48" s="18">
-        <f t="shared" ref="G48:G50" si="7">+C48/$B48</f>
+      <c r="G51" s="18">
+        <f t="shared" ref="G51:G53" si="10">+C51/$B51</f>
         <v>1.373671978812486</v>
       </c>
-      <c r="H48" s="18">
-        <f t="shared" ref="H48:H50" si="8">+D48/$B48</f>
+      <c r="H51" s="18">
+        <f t="shared" ref="H51:H53" si="11">+D51/$B51</f>
         <v>2.882317701442024</v>
       </c>
-      <c r="I48" s="18">
-        <f t="shared" ref="I48:I50" si="9">+E48/$B48</f>
+      <c r="I51" s="18">
+        <f t="shared" ref="I51:I53" si="12">+E51/$B51</f>
         <v>0.54826548178845746</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B52" s="9">
         <v>0.27409229552616299</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C52" s="9">
         <v>0.581256120450657</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D52" s="9">
         <v>0.62356671376080797</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E52" s="9">
         <v>7.8971052048355805E-2</v>
       </c>
-      <c r="G49" s="18">
-        <f t="shared" si="7"/>
+      <c r="G52" s="18">
+        <f t="shared" si="10"/>
         <v>2.1206583692359722</v>
       </c>
-      <c r="H49" s="18">
-        <f t="shared" si="8"/>
+      <c r="H52" s="18">
+        <f t="shared" si="11"/>
         <v>2.2750245955063209</v>
       </c>
-      <c r="I49" s="18">
-        <f t="shared" si="9"/>
+      <c r="I52" s="18">
+        <f t="shared" si="12"/>
         <v>0.28811846716361922</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="19" t="s">
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="20">
+      <c r="B53" s="20">
         <v>0.27409229552616299</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C53" s="20">
         <v>0.51130203965422705</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D53" s="20">
         <v>0.61685941254475496</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E53" s="20">
         <v>0.13010063352593601</v>
       </c>
-      <c r="G50" s="18">
-        <f t="shared" si="7"/>
+      <c r="G53" s="18">
+        <f t="shared" si="10"/>
         <v>1.8654374748940057</v>
       </c>
-      <c r="H50" s="18">
-        <f t="shared" si="8"/>
+      <c r="H53" s="18">
+        <f t="shared" si="11"/>
         <v>2.2505536369075858</v>
       </c>
-      <c r="I50" s="18">
-        <f t="shared" si="9"/>
+      <c r="I53" s="18">
+        <f t="shared" si="12"/>
         <v>0.47465994356458474</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B52" s="64" t="s">
+      <c r="B55" s="64" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="55" t="s">
+      <c r="B56" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="55" t="s">
+      <c r="C56" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="55" t="s">
+      <c r="D56" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="55" t="s">
+      <c r="E56" s="55" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B57" s="4">
         <v>93</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="G35:I35"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="G49:I49"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A12:E12"/>
@@ -2949,7 +3058,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37:G39">
+  <conditionalFormatting sqref="G37:G40 G42">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2959,7 +3068,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37:H39">
+  <conditionalFormatting sqref="H37:H40 H42">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2969,7 +3078,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:I39">
+  <conditionalFormatting sqref="I37:I40 I42">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2979,7 +3088,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48:G50">
+  <conditionalFormatting sqref="G51:G53">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2989,7 +3098,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48:H50">
+  <conditionalFormatting sqref="H51:H53">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2999,7 +3108,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:I50">
+  <conditionalFormatting sqref="I51:I53">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3071,20 +3180,20 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G4" s="86" t="s">
+      <c r="G4" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
@@ -3481,8 +3590,8 @@
       <c r="E18" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
       <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3680,12 +3789,12 @@
       <c r="B3" s="62"/>
     </row>
     <row r="4" spans="1:4" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4270,66 +4379,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="74" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
       <c r="G1" s="54"/>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="N1" s="73" t="s">
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="N1" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="T1" s="73" t="s">
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="T1" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="54"/>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="N2" s="74" t="s">
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="N2" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="T2" s="74" t="s">
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="T2" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
     </row>
     <row r="3" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4"/>
@@ -5361,10 +5470,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="77" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="76"/>
+      <c r="C2" s="77"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
@@ -5899,13 +6008,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
       <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6019,12 +6128,12 @@
       <c r="E8" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="13"/>
@@ -6323,12 +6432,12 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="13"/>
@@ -6662,13 +6771,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
@@ -6906,13 +7015,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="50"/>
@@ -6940,13 +7049,13 @@
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="1:5" ht="33.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="79" t="s">
+      <c r="A25" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
@@ -7208,13 +7317,13 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="80" t="s">
+      <c r="A43" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
     </row>
     <row r="45" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
@@ -7582,36 +7691,36 @@
       <c r="AB2"/>
     </row>
     <row r="3" spans="1:29" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
       <c r="AC3" s="32"/>
     </row>
     <row r="4" spans="1:29" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -8095,35 +8204,35 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="85" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="82" t="s">
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="83" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B5" s="36" t="s">

--- a/results/tables/final_tables_6_22.xlsx
+++ b/results/tables/final_tables_6_22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thecs\Dropbox (Boston University)\1_boston_university\8-Research Assistantship\ukData\results\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADF4813-25DE-4B9F-A044-2E75399FBAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C7A3E5-6360-4DDA-8838-00B72988985B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="656" firstSheet="5" activeTab="9" xr2:uid="{E382401A-5014-4F77-A3DB-04E9551C20F1}"/>
   </bookViews>
@@ -1140,7 +1140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1279,6 +1279,15 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1322,16 +1331,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2012,7 +2011,7 @@
   </sheetPr>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -2023,20 +2022,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
@@ -2185,20 +2184,20 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
     </row>
     <row r="13" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G13" s="87" t="s">
+      <c r="G13" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
     </row>
     <row r="14" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
@@ -2352,20 +2351,20 @@
     </row>
     <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:15" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
     </row>
     <row r="24" spans="1:15" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G24" s="87" t="s">
+      <c r="G24" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
     </row>
     <row r="25" spans="1:15" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
@@ -2561,20 +2560,20 @@
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="88" t="s">
+      <c r="A34" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
     </row>
     <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G35" s="87" t="s">
+      <c r="G35" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
     </row>
     <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
@@ -2606,16 +2605,16 @@
       <c r="A37" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="90">
+      <c r="B37" s="74">
         <v>0.30002408033317401</v>
       </c>
-      <c r="C37" s="90">
+      <c r="C37" s="74">
         <v>0.38983157888076198</v>
       </c>
-      <c r="D37" s="90">
+      <c r="D37" s="74">
         <v>0.77387006959986604</v>
       </c>
-      <c r="E37" s="90">
+      <c r="E37" s="74">
         <v>0.132595645940602</v>
       </c>
       <c r="G37" s="18">
@@ -2627,24 +2626,24 @@
         <v>2.579359859183604</v>
       </c>
       <c r="I37" s="18">
-        <f t="shared" ref="I37:I41" si="6">+E37/$B37</f>
+        <f t="shared" ref="I37" si="6">+E37/$B37</f>
         <v>0.44195001212354601</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="91">
+      <c r="B38" s="75">
         <f>-G42</f>
         <v>-3.27791808747964E-2</v>
       </c>
-      <c r="C38" s="91">
+      <c r="C38" s="75">
         <f t="shared" ref="C38:E38" si="7">-H42</f>
         <v>-7.5396741976460305E-2</v>
       </c>
-      <c r="D38" s="91">
+      <c r="D38" s="75">
         <f t="shared" si="7"/>
         <v>-0.115293505002319</v>
       </c>
-      <c r="E38" s="91">
+      <c r="E38" s="75">
         <f t="shared" si="7"/>
         <v>-0.14196233908585501</v>
       </c>
@@ -2665,16 +2664,16 @@
       <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="90">
+      <c r="B39" s="74">
         <v>0.30002408033317401</v>
       </c>
-      <c r="C39" s="90">
+      <c r="C39" s="74">
         <v>0.536012038389163</v>
       </c>
-      <c r="D39" s="90">
+      <c r="D39" s="74">
         <v>0.65158108175637797</v>
       </c>
-      <c r="E39" s="90">
+      <c r="E39" s="74">
         <v>6.9889421558501405E-2</v>
       </c>
       <c r="F39" s="18"/>
@@ -2692,19 +2691,19 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="91">
+      <c r="B40" s="75">
         <f>-G43</f>
         <v>-3.5902339137002803E-2</v>
       </c>
-      <c r="C40" s="91">
+      <c r="C40" s="75">
         <f t="shared" ref="C40:E40" si="8">-H43</f>
         <v>-8.7285450730600303E-2</v>
       </c>
-      <c r="D40" s="91">
+      <c r="D40" s="75">
         <f t="shared" si="8"/>
         <v>-8.3582228841739506E-2</v>
       </c>
-      <c r="E40" s="91">
+      <c r="E40" s="75">
         <f t="shared" si="8"/>
         <v>-9.8175524348070906E-2</v>
       </c>
@@ -2713,38 +2712,38 @@
       <c r="I40" s="18"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="89" t="s">
+      <c r="A41" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="90">
+      <c r="B41" s="74">
         <v>0.30002408033317401</v>
       </c>
-      <c r="C41" s="90">
+      <c r="C41" s="74">
         <v>0.62828630817505104</v>
       </c>
-      <c r="D41" s="90">
+      <c r="D41" s="74">
         <v>0.55193979369233104</v>
       </c>
-      <c r="E41" s="90">
+      <c r="E41" s="74">
         <v>4.5849482279728501E-2</v>
       </c>
       <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="19"/>
-      <c r="B42" s="92">
+      <c r="B42" s="76">
         <f>-G44</f>
         <v>-3.5398027084865398E-2</v>
       </c>
-      <c r="C42" s="92">
+      <c r="C42" s="76">
         <f t="shared" ref="C42:E42" si="9">-H44</f>
         <v>-8.8625088080741696E-2</v>
       </c>
-      <c r="D42" s="92">
+      <c r="D42" s="76">
         <f t="shared" si="9"/>
         <v>-8.7677991056143698E-2</v>
       </c>
-      <c r="E42" s="92">
+      <c r="E42" s="76">
         <f t="shared" si="9"/>
         <v>-7.5233432632621805E-2</v>
       </c>
@@ -2824,20 +2823,20 @@
       <c r="E46" s="1"/>
     </row>
     <row r="48" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="88" t="s">
+      <c r="A48" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="88"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="91"/>
     </row>
     <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G49" s="87" t="s">
+      <c r="G49" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="H49" s="87"/>
-      <c r="I49" s="87"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="90"/>
     </row>
     <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="10" t="s">
@@ -3180,20 +3179,20 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
@@ -3590,8 +3589,8 @@
       <c r="E18" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
       <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3789,12 +3788,12 @@
       <c r="B3" s="62"/>
     </row>
     <row r="4" spans="1:4" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4379,66 +4378,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="77" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
       <c r="G1" s="54"/>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="77" t="s">
         <v>248</v>
       </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="N1" s="74" t="s">
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="N1" s="77" t="s">
         <v>212</v>
       </c>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="T1" s="74" t="s">
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="T1" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="54"/>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="78" t="s">
         <v>214</v>
       </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="N2" s="75" t="s">
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="N2" s="78" t="s">
         <v>214</v>
       </c>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="T2" s="75" t="s">
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="T2" s="78" t="s">
         <v>214</v>
       </c>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
     </row>
     <row r="3" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4"/>
@@ -5470,10 +5469,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="80" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="77"/>
+      <c r="C2" s="80"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
@@ -6008,13 +6007,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
       <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6128,12 +6127,12 @@
       <c r="E8" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="13"/>
@@ -6432,12 +6431,12 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="79" t="s">
+      <c r="A37" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="13"/>
@@ -6771,13 +6770,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
@@ -7015,13 +7014,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="50"/>
@@ -7049,13 +7048,13 @@
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="1:5" ht="33.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="80" t="s">
+      <c r="A25" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
@@ -7317,13 +7316,13 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="81" t="s">
+      <c r="A43" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="84"/>
     </row>
     <row r="45" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
@@ -7691,36 +7690,36 @@
       <c r="AB2"/>
     </row>
     <row r="3" spans="1:29" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="85"/>
       <c r="AC3" s="32"/>
     </row>
     <row r="4" spans="1:29" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -8204,35 +8203,35 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="86" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="83" t="s">
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B5" s="36" t="s">
